--- a/data/raw/election/voters-age-sex-education/2023/Adana.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Adana.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:18:23-29875749999" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="44">
   <si>
     <t>Adana</t>
   </si>
@@ -146,6 +145,12 @@
   </si>
   <si>
     <t>Yüreğir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -679,7 +684,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -699,10 +704,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1027,11 +1041,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N394"/>
+  <dimension ref="A1:N396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="A386" sqref="A386"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1039,31 +1051,31 @@
     <col min="2" max="2" width="5.5703125" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2097,20 +2109,20 @@
       <c r="D30" s="5">
         <v>693</v>
       </c>
-      <c r="E30" s="5">
-        <v>2.411</v>
-      </c>
-      <c r="F30" s="5">
-        <v>1.8129999999999999</v>
-      </c>
-      <c r="G30" s="5">
-        <v>1.9650000000000001</v>
-      </c>
-      <c r="H30" s="5">
-        <v>3.2970000000000002</v>
-      </c>
-      <c r="I30" s="5">
-        <v>1.3240000000000001</v>
+      <c r="E30" s="7">
+        <v>2411</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1813</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1965</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1324</v>
       </c>
       <c r="J30" s="5">
         <v>105</v>
@@ -2121,8 +2133,8 @@
       <c r="L30" s="5">
         <v>29</v>
       </c>
-      <c r="M30" s="5">
-        <v>12.33</v>
+      <c r="M30" s="7">
+        <v>12330</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -2183,11 +2195,11 @@
       <c r="F32" s="4">
         <v>5</v>
       </c>
-      <c r="G32" s="4">
-        <v>2.3380000000000001</v>
-      </c>
-      <c r="H32" s="4">
-        <v>5.1890000000000001</v>
+      <c r="G32" s="9">
+        <v>2338</v>
+      </c>
+      <c r="H32" s="9">
+        <v>5189</v>
       </c>
       <c r="I32" s="4">
         <v>829</v>
@@ -2201,8 +2213,8 @@
       <c r="L32" s="4">
         <v>62</v>
       </c>
-      <c r="M32" s="5">
-        <v>8.5470000000000006</v>
+      <c r="M32" s="7">
+        <v>8547</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2222,14 +2234,14 @@
       <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="G33" s="4">
-        <v>1.8720000000000001</v>
-      </c>
-      <c r="H33" s="4">
-        <v>5.03</v>
-      </c>
-      <c r="I33" s="4">
-        <v>1.298</v>
+      <c r="G33" s="9">
+        <v>1872</v>
+      </c>
+      <c r="H33" s="9">
+        <v>5030</v>
+      </c>
+      <c r="I33" s="9">
+        <v>1298</v>
       </c>
       <c r="J33" s="4">
         <v>14</v>
@@ -2240,8 +2252,8 @@
       <c r="L33" s="4">
         <v>24</v>
       </c>
-      <c r="M33" s="5">
-        <v>8.4049999999999994</v>
+      <c r="M33" s="7">
+        <v>8405</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2263,14 +2275,14 @@
       <c r="F34" s="4">
         <v>77</v>
       </c>
-      <c r="G34" s="4">
-        <v>1.3460000000000001</v>
-      </c>
-      <c r="H34" s="4">
-        <v>1.802</v>
-      </c>
-      <c r="I34" s="4">
-        <v>1.9950000000000001</v>
+      <c r="G34" s="9">
+        <v>1346</v>
+      </c>
+      <c r="H34" s="9">
+        <v>1802</v>
+      </c>
+      <c r="I34" s="9">
+        <v>1995</v>
       </c>
       <c r="J34" s="4">
         <v>100</v>
@@ -2281,8 +2293,8 @@
       <c r="L34" s="4">
         <v>17</v>
       </c>
-      <c r="M34" s="5">
-        <v>5.4880000000000004</v>
+      <c r="M34" s="7">
+        <v>5488</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2302,14 +2314,14 @@
       <c r="F35" s="4">
         <v>104</v>
       </c>
-      <c r="G35" s="4">
-        <v>1.1719999999999999</v>
-      </c>
-      <c r="H35" s="4">
-        <v>1.2709999999999999</v>
-      </c>
-      <c r="I35" s="4">
-        <v>2.19</v>
+      <c r="G35" s="9">
+        <v>1172</v>
+      </c>
+      <c r="H35" s="9">
+        <v>1271</v>
+      </c>
+      <c r="I35" s="9">
+        <v>2190</v>
       </c>
       <c r="J35" s="4">
         <v>125</v>
@@ -2320,8 +2332,8 @@
       <c r="L35" s="4">
         <v>19</v>
       </c>
-      <c r="M35" s="5">
-        <v>5.2850000000000001</v>
+      <c r="M35" s="7">
+        <v>5285</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2346,11 +2358,11 @@
       <c r="G36" s="4">
         <v>689</v>
       </c>
-      <c r="H36" s="4">
-        <v>1.72</v>
-      </c>
-      <c r="I36" s="4">
-        <v>1.6850000000000001</v>
+      <c r="H36" s="9">
+        <v>1720</v>
+      </c>
+      <c r="I36" s="9">
+        <v>1685</v>
       </c>
       <c r="J36" s="4">
         <v>139</v>
@@ -2361,8 +2373,8 @@
       <c r="L36" s="4">
         <v>20</v>
       </c>
-      <c r="M36" s="5">
-        <v>5.1980000000000004</v>
+      <c r="M36" s="7">
+        <v>5198</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2385,11 +2397,11 @@
       <c r="G37" s="4">
         <v>534</v>
       </c>
-      <c r="H37" s="4">
-        <v>1.45</v>
-      </c>
-      <c r="I37" s="4">
-        <v>1.53</v>
+      <c r="H37" s="9">
+        <v>1450</v>
+      </c>
+      <c r="I37" s="9">
+        <v>1530</v>
       </c>
       <c r="J37" s="4">
         <v>131</v>
@@ -2400,8 +2412,8 @@
       <c r="L37" s="4">
         <v>42</v>
       </c>
-      <c r="M37" s="5">
-        <v>5.3040000000000003</v>
+      <c r="M37" s="7">
+        <v>5304</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2426,11 +2438,11 @@
       <c r="G38" s="4">
         <v>459</v>
       </c>
-      <c r="H38" s="4">
-        <v>2.1070000000000002</v>
-      </c>
-      <c r="I38" s="4">
-        <v>1.343</v>
+      <c r="H38" s="9">
+        <v>2107</v>
+      </c>
+      <c r="I38" s="9">
+        <v>1343</v>
       </c>
       <c r="J38" s="4">
         <v>166</v>
@@ -2441,8 +2453,8 @@
       <c r="L38" s="4">
         <v>25</v>
       </c>
-      <c r="M38" s="5">
-        <v>5.3680000000000003</v>
+      <c r="M38" s="7">
+        <v>5368</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2465,11 +2477,11 @@
       <c r="G39" s="4">
         <v>452</v>
       </c>
-      <c r="H39" s="4">
-        <v>1.8129999999999999</v>
-      </c>
-      <c r="I39" s="4">
-        <v>1.008</v>
+      <c r="H39" s="9">
+        <v>1813</v>
+      </c>
+      <c r="I39" s="9">
+        <v>1008</v>
       </c>
       <c r="J39" s="4">
         <v>127</v>
@@ -2480,8 +2492,8 @@
       <c r="L39" s="4">
         <v>32</v>
       </c>
-      <c r="M39" s="5">
-        <v>5.3570000000000002</v>
+      <c r="M39" s="7">
+        <v>5357</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2506,8 +2518,8 @@
       <c r="G40" s="4">
         <v>914</v>
       </c>
-      <c r="H40" s="4">
-        <v>2.1339999999999999</v>
+      <c r="H40" s="9">
+        <v>2134</v>
       </c>
       <c r="I40" s="4">
         <v>911</v>
@@ -2521,8 +2533,8 @@
       <c r="L40" s="4">
         <v>38</v>
       </c>
-      <c r="M40" s="5">
-        <v>5.5270000000000001</v>
+      <c r="M40" s="7">
+        <v>5527</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2536,8 +2548,8 @@
       <c r="D41" s="4">
         <v>280</v>
       </c>
-      <c r="E41" s="4">
-        <v>1.2390000000000001</v>
+      <c r="E41" s="9">
+        <v>1239</v>
       </c>
       <c r="F41" s="4">
         <v>339</v>
@@ -2545,8 +2557,8 @@
       <c r="G41" s="4">
         <v>763</v>
       </c>
-      <c r="H41" s="4">
-        <v>1.752</v>
+      <c r="H41" s="9">
+        <v>1752</v>
       </c>
       <c r="I41" s="4">
         <v>686</v>
@@ -2560,8 +2572,8 @@
       <c r="L41" s="4">
         <v>22</v>
       </c>
-      <c r="M41" s="5">
-        <v>5.3049999999999997</v>
+      <c r="M41" s="7">
+        <v>5305</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2586,8 +2598,8 @@
       <c r="G42" s="4">
         <v>774</v>
       </c>
-      <c r="H42" s="4">
-        <v>1.7649999999999999</v>
+      <c r="H42" s="9">
+        <v>1765</v>
       </c>
       <c r="I42" s="4">
         <v>730</v>
@@ -2601,8 +2613,8 @@
       <c r="L42" s="4">
         <v>32</v>
       </c>
-      <c r="M42" s="5">
-        <v>4.6609999999999996</v>
+      <c r="M42" s="7">
+        <v>4661</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2616,8 +2628,8 @@
       <c r="D43" s="4">
         <v>201</v>
       </c>
-      <c r="E43" s="4">
-        <v>1.327</v>
+      <c r="E43" s="9">
+        <v>1327</v>
       </c>
       <c r="F43" s="4">
         <v>384</v>
@@ -2625,8 +2637,8 @@
       <c r="G43" s="4">
         <v>732</v>
       </c>
-      <c r="H43" s="4">
-        <v>1.4370000000000001</v>
+      <c r="H43" s="9">
+        <v>1437</v>
       </c>
       <c r="I43" s="4">
         <v>440</v>
@@ -2640,8 +2652,8 @@
       <c r="L43" s="4">
         <v>23</v>
       </c>
-      <c r="M43" s="5">
-        <v>4.6719999999999997</v>
+      <c r="M43" s="7">
+        <v>4672</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2666,8 +2678,8 @@
       <c r="G44" s="4">
         <v>842</v>
       </c>
-      <c r="H44" s="4">
-        <v>1.4490000000000001</v>
+      <c r="H44" s="9">
+        <v>1449</v>
       </c>
       <c r="I44" s="4">
         <v>491</v>
@@ -2681,8 +2693,8 @@
       <c r="L44" s="4">
         <v>37</v>
       </c>
-      <c r="M44" s="5">
-        <v>4.3869999999999996</v>
+      <c r="M44" s="7">
+        <v>4387</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2696,8 +2708,8 @@
       <c r="D45" s="4">
         <v>287</v>
       </c>
-      <c r="E45" s="4">
-        <v>1.373</v>
+      <c r="E45" s="9">
+        <v>1373</v>
       </c>
       <c r="F45" s="4">
         <v>345</v>
@@ -2705,8 +2717,8 @@
       <c r="G45" s="4">
         <v>804</v>
       </c>
-      <c r="H45" s="4">
-        <v>1.252</v>
+      <c r="H45" s="9">
+        <v>1252</v>
       </c>
       <c r="I45" s="4">
         <v>247</v>
@@ -2720,8 +2732,8 @@
       <c r="L45" s="4">
         <v>30</v>
       </c>
-      <c r="M45" s="5">
-        <v>4.4939999999999998</v>
+      <c r="M45" s="7">
+        <v>4494</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2746,8 +2758,8 @@
       <c r="G46" s="4">
         <v>885</v>
       </c>
-      <c r="H46" s="4">
-        <v>1.4330000000000001</v>
+      <c r="H46" s="9">
+        <v>1433</v>
       </c>
       <c r="I46" s="4">
         <v>431</v>
@@ -2761,8 +2773,8 @@
       <c r="L46" s="4">
         <v>37</v>
       </c>
-      <c r="M46" s="5">
-        <v>4.5620000000000003</v>
+      <c r="M46" s="7">
+        <v>4562</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2776,8 +2788,8 @@
       <c r="D47" s="4">
         <v>307</v>
       </c>
-      <c r="E47" s="4">
-        <v>1.75</v>
+      <c r="E47" s="9">
+        <v>1750</v>
       </c>
       <c r="F47" s="4">
         <v>294</v>
@@ -2785,8 +2797,8 @@
       <c r="G47" s="4">
         <v>668</v>
       </c>
-      <c r="H47" s="4">
-        <v>1.1120000000000001</v>
+      <c r="H47" s="9">
+        <v>1112</v>
       </c>
       <c r="I47" s="4">
         <v>168</v>
@@ -2800,8 +2812,8 @@
       <c r="L47" s="4">
         <v>42</v>
       </c>
-      <c r="M47" s="5">
-        <v>4.53</v>
+      <c r="M47" s="7">
+        <v>4530</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2817,8 +2829,8 @@
       <c r="D48" s="4">
         <v>96</v>
       </c>
-      <c r="E48" s="4">
-        <v>1.236</v>
+      <c r="E48" s="9">
+        <v>1236</v>
       </c>
       <c r="F48" s="4">
         <v>472</v>
@@ -2826,8 +2838,8 @@
       <c r="G48" s="4">
         <v>678</v>
       </c>
-      <c r="H48" s="4">
-        <v>1.2589999999999999</v>
+      <c r="H48" s="9">
+        <v>1259</v>
       </c>
       <c r="I48" s="4">
         <v>271</v>
@@ -2841,8 +2853,8 @@
       <c r="L48" s="4">
         <v>41</v>
       </c>
-      <c r="M48" s="5">
-        <v>4.1100000000000003</v>
+      <c r="M48" s="7">
+        <v>4110</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2856,8 +2868,8 @@
       <c r="D49" s="4">
         <v>364</v>
       </c>
-      <c r="E49" s="4">
-        <v>1.9570000000000001</v>
+      <c r="E49" s="9">
+        <v>1957</v>
       </c>
       <c r="F49" s="4">
         <v>186</v>
@@ -2880,8 +2892,8 @@
       <c r="L49" s="4">
         <v>36</v>
       </c>
-      <c r="M49" s="5">
-        <v>4.2320000000000002</v>
+      <c r="M49" s="7">
+        <v>4232</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2897,8 +2909,8 @@
       <c r="D50" s="4">
         <v>160</v>
       </c>
-      <c r="E50" s="4">
-        <v>1.472</v>
+      <c r="E50" s="9">
+        <v>1472</v>
       </c>
       <c r="F50" s="4">
         <v>231</v>
@@ -2921,8 +2933,8 @@
       <c r="L50" s="4">
         <v>42</v>
       </c>
-      <c r="M50" s="5">
-        <v>3.4180000000000001</v>
+      <c r="M50" s="7">
+        <v>3418</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2936,8 +2948,8 @@
       <c r="D51" s="4">
         <v>477</v>
       </c>
-      <c r="E51" s="4">
-        <v>1.7270000000000001</v>
+      <c r="E51" s="9">
+        <v>1727</v>
       </c>
       <c r="F51" s="4">
         <v>79</v>
@@ -2960,8 +2972,8 @@
       <c r="L51" s="4">
         <v>43</v>
       </c>
-      <c r="M51" s="5">
-        <v>3.464</v>
+      <c r="M51" s="7">
+        <v>3464</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2977,8 +2989,8 @@
       <c r="D52" s="4">
         <v>134</v>
       </c>
-      <c r="E52" s="4">
-        <v>1.129</v>
+      <c r="E52" s="9">
+        <v>1129</v>
       </c>
       <c r="F52" s="4">
         <v>79</v>
@@ -3001,8 +3013,8 @@
       <c r="L52" s="4">
         <v>24</v>
       </c>
-      <c r="M52" s="5">
-        <v>2.0649999999999999</v>
+      <c r="M52" s="7">
+        <v>2065</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3016,8 +3028,8 @@
       <c r="D53" s="4">
         <v>515</v>
       </c>
-      <c r="E53" s="4">
-        <v>1.143</v>
+      <c r="E53" s="9">
+        <v>1143</v>
       </c>
       <c r="F53" s="4">
         <v>24</v>
@@ -3040,8 +3052,8 @@
       <c r="L53" s="4">
         <v>22</v>
       </c>
-      <c r="M53" s="5">
-        <v>2.5070000000000001</v>
+      <c r="M53" s="7">
+        <v>2507</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3057,8 +3069,8 @@
       <c r="D54" s="4">
         <v>337</v>
       </c>
-      <c r="E54" s="4">
-        <v>1.2390000000000001</v>
+      <c r="E54" s="9">
+        <v>1239</v>
       </c>
       <c r="F54" s="4">
         <v>25</v>
@@ -3081,8 +3093,8 @@
       <c r="L54" s="4">
         <v>22</v>
       </c>
-      <c r="M54" s="5">
-        <v>2.2000000000000002</v>
+      <c r="M54" s="7">
+        <v>2200</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3090,14 +3102,14 @@
       <c r="B55" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="4">
-        <v>1.1679999999999999</v>
-      </c>
-      <c r="D55" s="4">
-        <v>1</v>
-      </c>
-      <c r="E55" s="4">
-        <v>1.109</v>
+      <c r="C55" s="9">
+        <v>1168</v>
+      </c>
+      <c r="D55" s="9">
+        <v>1000</v>
+      </c>
+      <c r="E55" s="9">
+        <v>1109</v>
       </c>
       <c r="F55" s="4">
         <v>8</v>
@@ -3120,8 +3132,8 @@
       <c r="L55" s="4">
         <v>18</v>
       </c>
-      <c r="M55" s="5">
-        <v>3.496</v>
+      <c r="M55" s="7">
+        <v>3496</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3129,29 +3141,29 @@
         <v>12</v>
       </c>
       <c r="B56" s="6"/>
-      <c r="C56" s="5">
-        <v>3.3260000000000001</v>
-      </c>
-      <c r="D56" s="5">
-        <v>5.6870000000000003</v>
-      </c>
-      <c r="E56" s="5">
-        <v>21.581</v>
-      </c>
-      <c r="F56" s="5">
-        <v>8.3390000000000004</v>
-      </c>
-      <c r="G56" s="5">
-        <v>17.776</v>
-      </c>
-      <c r="H56" s="5">
-        <v>36.68</v>
-      </c>
-      <c r="I56" s="5">
-        <v>17.026</v>
-      </c>
-      <c r="J56" s="5">
-        <v>1.345</v>
+      <c r="C56" s="7">
+        <v>3326</v>
+      </c>
+      <c r="D56" s="7">
+        <v>5687</v>
+      </c>
+      <c r="E56" s="7">
+        <v>21581</v>
+      </c>
+      <c r="F56" s="7">
+        <v>8339</v>
+      </c>
+      <c r="G56" s="7">
+        <v>17776</v>
+      </c>
+      <c r="H56" s="7">
+        <v>36680</v>
+      </c>
+      <c r="I56" s="7">
+        <v>17026</v>
+      </c>
+      <c r="J56" s="7">
+        <v>1345</v>
       </c>
       <c r="K56" s="5">
         <v>72</v>
@@ -3159,8 +3171,8 @@
       <c r="L56" s="5">
         <v>750</v>
       </c>
-      <c r="M56" s="5">
-        <v>112.58199999999999</v>
+      <c r="M56" s="7">
+        <v>112582</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3221,14 +3233,14 @@
       <c r="F58" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="4">
-        <v>1.9750000000000001</v>
-      </c>
-      <c r="H58" s="4">
-        <v>13.214</v>
-      </c>
-      <c r="I58" s="4">
-        <v>2.593</v>
+      <c r="G58" s="9">
+        <v>1975</v>
+      </c>
+      <c r="H58" s="9">
+        <v>13214</v>
+      </c>
+      <c r="I58" s="9">
+        <v>2593</v>
       </c>
       <c r="J58" s="4">
         <v>45</v>
@@ -3239,8 +3251,8 @@
       <c r="L58" s="4">
         <v>107</v>
       </c>
-      <c r="M58" s="5">
-        <v>17.984000000000002</v>
+      <c r="M58" s="7">
+        <v>17984</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3260,14 +3272,14 @@
       <c r="F59" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="4">
-        <v>1.5369999999999999</v>
-      </c>
-      <c r="H59" s="4">
-        <v>12.755000000000001</v>
-      </c>
-      <c r="I59" s="4">
-        <v>3.5470000000000002</v>
+      <c r="G59" s="9">
+        <v>1537</v>
+      </c>
+      <c r="H59" s="9">
+        <v>12755</v>
+      </c>
+      <c r="I59" s="9">
+        <v>3547</v>
       </c>
       <c r="J59" s="4">
         <v>67</v>
@@ -3278,8 +3290,8 @@
       <c r="L59" s="4">
         <v>56</v>
       </c>
-      <c r="M59" s="5">
-        <v>18.021000000000001</v>
+      <c r="M59" s="7">
+        <v>18021</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3301,14 +3313,14 @@
       <c r="F60" s="4">
         <v>30</v>
       </c>
-      <c r="G60" s="4">
-        <v>1.0549999999999999</v>
-      </c>
-      <c r="H60" s="4">
-        <v>3.3559999999999999</v>
-      </c>
-      <c r="I60" s="4">
-        <v>6.4729999999999999</v>
+      <c r="G60" s="9">
+        <v>1055</v>
+      </c>
+      <c r="H60" s="9">
+        <v>3356</v>
+      </c>
+      <c r="I60" s="9">
+        <v>6473</v>
       </c>
       <c r="J60" s="4">
         <v>720</v>
@@ -3319,8 +3331,8 @@
       <c r="L60" s="4">
         <v>64</v>
       </c>
-      <c r="M60" s="5">
-        <v>11.739000000000001</v>
+      <c r="M60" s="7">
+        <v>11739</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3343,14 +3355,14 @@
       <c r="G61" s="4">
         <v>960</v>
       </c>
-      <c r="H61" s="4">
-        <v>2.605</v>
-      </c>
-      <c r="I61" s="4">
-        <v>7.694</v>
-      </c>
-      <c r="J61" s="4">
-        <v>1.0309999999999999</v>
+      <c r="H61" s="9">
+        <v>2605</v>
+      </c>
+      <c r="I61" s="9">
+        <v>7694</v>
+      </c>
+      <c r="J61" s="9">
+        <v>1031</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>15</v>
@@ -3358,8 +3370,8 @@
       <c r="L61" s="4">
         <v>57</v>
       </c>
-      <c r="M61" s="5">
-        <v>12.532</v>
+      <c r="M61" s="7">
+        <v>12532</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3384,14 +3396,14 @@
       <c r="G62" s="4">
         <v>726</v>
       </c>
-      <c r="H62" s="4">
-        <v>2.9550000000000001</v>
-      </c>
-      <c r="I62" s="4">
-        <v>6.0270000000000001</v>
-      </c>
-      <c r="J62" s="4">
-        <v>1.0740000000000001</v>
+      <c r="H62" s="9">
+        <v>2955</v>
+      </c>
+      <c r="I62" s="9">
+        <v>6027</v>
+      </c>
+      <c r="J62" s="9">
+        <v>1074</v>
       </c>
       <c r="K62" s="4">
         <v>28</v>
@@ -3399,8 +3411,8 @@
       <c r="L62" s="4">
         <v>53</v>
       </c>
-      <c r="M62" s="5">
-        <v>11.411</v>
+      <c r="M62" s="7">
+        <v>11411</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3423,14 +3435,14 @@
       <c r="G63" s="4">
         <v>610</v>
       </c>
-      <c r="H63" s="4">
-        <v>3.0070000000000001</v>
-      </c>
-      <c r="I63" s="4">
-        <v>7.4880000000000004</v>
-      </c>
-      <c r="J63" s="4">
-        <v>1.198</v>
+      <c r="H63" s="9">
+        <v>3007</v>
+      </c>
+      <c r="I63" s="9">
+        <v>7488</v>
+      </c>
+      <c r="J63" s="9">
+        <v>1198</v>
       </c>
       <c r="K63" s="4">
         <v>40</v>
@@ -3438,8 +3450,8 @@
       <c r="L63" s="4">
         <v>85</v>
       </c>
-      <c r="M63" s="5">
-        <v>13.491</v>
+      <c r="M63" s="7">
+        <v>13491</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3464,14 +3476,14 @@
       <c r="G64" s="4">
         <v>677</v>
       </c>
-      <c r="H64" s="4">
-        <v>3.919</v>
-      </c>
-      <c r="I64" s="4">
-        <v>6.0590000000000002</v>
-      </c>
-      <c r="J64" s="4">
-        <v>1.1379999999999999</v>
+      <c r="H64" s="9">
+        <v>3919</v>
+      </c>
+      <c r="I64" s="9">
+        <v>6059</v>
+      </c>
+      <c r="J64" s="9">
+        <v>1138</v>
       </c>
       <c r="K64" s="4">
         <v>101</v>
@@ -3479,8 +3491,8 @@
       <c r="L64" s="4">
         <v>72</v>
       </c>
-      <c r="M64" s="5">
-        <v>12.933</v>
+      <c r="M64" s="7">
+        <v>12933</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3503,14 +3515,14 @@
       <c r="G65" s="4">
         <v>833</v>
       </c>
-      <c r="H65" s="4">
-        <v>4.7039999999999997</v>
-      </c>
-      <c r="I65" s="4">
-        <v>6.9169999999999998</v>
-      </c>
-      <c r="J65" s="4">
-        <v>1.2669999999999999</v>
+      <c r="H65" s="9">
+        <v>4704</v>
+      </c>
+      <c r="I65" s="9">
+        <v>6917</v>
+      </c>
+      <c r="J65" s="9">
+        <v>1267</v>
       </c>
       <c r="K65" s="4">
         <v>121</v>
@@ -3518,8 +3530,8 @@
       <c r="L65" s="4">
         <v>106</v>
       </c>
-      <c r="M65" s="5">
-        <v>15.853</v>
+      <c r="M65" s="7">
+        <v>15853</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3541,17 +3553,17 @@
       <c r="F66" s="4">
         <v>631</v>
       </c>
-      <c r="G66" s="4">
-        <v>1.1830000000000001</v>
-      </c>
-      <c r="H66" s="4">
-        <v>5.0019999999999998</v>
-      </c>
-      <c r="I66" s="4">
-        <v>5.8170000000000002</v>
-      </c>
-      <c r="J66" s="4">
-        <v>1.4139999999999999</v>
+      <c r="G66" s="9">
+        <v>1183</v>
+      </c>
+      <c r="H66" s="9">
+        <v>5002</v>
+      </c>
+      <c r="I66" s="9">
+        <v>5817</v>
+      </c>
+      <c r="J66" s="9">
+        <v>1414</v>
       </c>
       <c r="K66" s="4">
         <v>178</v>
@@ -3559,8 +3571,8 @@
       <c r="L66" s="4">
         <v>81</v>
       </c>
-      <c r="M66" s="5">
-        <v>14.946</v>
+      <c r="M66" s="7">
+        <v>14946</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3574,23 +3586,23 @@
       <c r="D67" s="4">
         <v>85</v>
       </c>
-      <c r="E67" s="4">
-        <v>1.659</v>
+      <c r="E67" s="9">
+        <v>1659</v>
       </c>
       <c r="F67" s="4">
         <v>724</v>
       </c>
-      <c r="G67" s="4">
-        <v>1.458</v>
-      </c>
-      <c r="H67" s="4">
-        <v>5.8449999999999998</v>
-      </c>
-      <c r="I67" s="4">
-        <v>6.4729999999999999</v>
-      </c>
-      <c r="J67" s="4">
-        <v>1.474</v>
+      <c r="G67" s="9">
+        <v>1458</v>
+      </c>
+      <c r="H67" s="9">
+        <v>5845</v>
+      </c>
+      <c r="I67" s="9">
+        <v>6473</v>
+      </c>
+      <c r="J67" s="9">
+        <v>1474</v>
       </c>
       <c r="K67" s="4">
         <v>179</v>
@@ -3598,8 +3610,8 @@
       <c r="L67" s="4">
         <v>82</v>
       </c>
-      <c r="M67" s="5">
-        <v>18.012</v>
+      <c r="M67" s="7">
+        <v>18012</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3621,17 +3633,17 @@
       <c r="F68" s="4">
         <v>879</v>
       </c>
-      <c r="G68" s="4">
-        <v>1.29</v>
-      </c>
-      <c r="H68" s="4">
-        <v>4.4009999999999998</v>
-      </c>
-      <c r="I68" s="4">
-        <v>5.4</v>
-      </c>
-      <c r="J68" s="4">
-        <v>1.056</v>
+      <c r="G68" s="9">
+        <v>1290</v>
+      </c>
+      <c r="H68" s="9">
+        <v>4401</v>
+      </c>
+      <c r="I68" s="9">
+        <v>5400</v>
+      </c>
+      <c r="J68" s="9">
+        <v>1056</v>
       </c>
       <c r="K68" s="4">
         <v>240</v>
@@ -3639,8 +3651,8 @@
       <c r="L68" s="4">
         <v>81</v>
       </c>
-      <c r="M68" s="5">
-        <v>14.128</v>
+      <c r="M68" s="7">
+        <v>14128</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3654,20 +3666,20 @@
       <c r="D69" s="4">
         <v>103</v>
       </c>
-      <c r="E69" s="4">
-        <v>2.093</v>
+      <c r="E69" s="9">
+        <v>2093</v>
       </c>
       <c r="F69" s="4">
         <v>854</v>
       </c>
-      <c r="G69" s="4">
-        <v>1.6140000000000001</v>
-      </c>
-      <c r="H69" s="4">
-        <v>5.4950000000000001</v>
-      </c>
-      <c r="I69" s="4">
-        <v>5.4210000000000003</v>
+      <c r="G69" s="9">
+        <v>1614</v>
+      </c>
+      <c r="H69" s="9">
+        <v>5495</v>
+      </c>
+      <c r="I69" s="9">
+        <v>5421</v>
       </c>
       <c r="J69" s="4">
         <v>782</v>
@@ -3678,8 +3690,8 @@
       <c r="L69" s="4">
         <v>98</v>
       </c>
-      <c r="M69" s="5">
-        <v>16.693999999999999</v>
+      <c r="M69" s="7">
+        <v>16694</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3698,17 +3710,17 @@
       <c r="E70" s="4">
         <v>864</v>
       </c>
-      <c r="F70" s="4">
-        <v>1.0389999999999999</v>
-      </c>
-      <c r="G70" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="H70" s="4">
-        <v>3.68</v>
-      </c>
-      <c r="I70" s="4">
-        <v>4.4880000000000004</v>
+      <c r="F70" s="9">
+        <v>1039</v>
+      </c>
+      <c r="G70" s="9">
+        <v>1400</v>
+      </c>
+      <c r="H70" s="9">
+        <v>3680</v>
+      </c>
+      <c r="I70" s="9">
+        <v>4488</v>
       </c>
       <c r="J70" s="4">
         <v>759</v>
@@ -3719,8 +3731,8 @@
       <c r="L70" s="4">
         <v>110</v>
       </c>
-      <c r="M70" s="5">
-        <v>12.579000000000001</v>
+      <c r="M70" s="7">
+        <v>12579</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3734,20 +3746,20 @@
       <c r="D71" s="4">
         <v>138</v>
       </c>
-      <c r="E71" s="4">
-        <v>2.5129999999999999</v>
+      <c r="E71" s="9">
+        <v>2513</v>
       </c>
       <c r="F71" s="4">
         <v>834</v>
       </c>
-      <c r="G71" s="4">
-        <v>1.746</v>
-      </c>
-      <c r="H71" s="4">
-        <v>4.46</v>
-      </c>
-      <c r="I71" s="4">
-        <v>3.5459999999999998</v>
+      <c r="G71" s="9">
+        <v>1746</v>
+      </c>
+      <c r="H71" s="9">
+        <v>4460</v>
+      </c>
+      <c r="I71" s="9">
+        <v>3546</v>
       </c>
       <c r="J71" s="4">
         <v>509</v>
@@ -3758,8 +3770,8 @@
       <c r="L71" s="4">
         <v>111</v>
       </c>
-      <c r="M71" s="5">
-        <v>14.048999999999999</v>
+      <c r="M71" s="7">
+        <v>14049</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3775,20 +3787,20 @@
       <c r="D72" s="4">
         <v>23</v>
       </c>
-      <c r="E72" s="4">
-        <v>1.054</v>
+      <c r="E72" s="9">
+        <v>1054</v>
       </c>
       <c r="F72" s="4">
         <v>941</v>
       </c>
-      <c r="G72" s="4">
-        <v>1.401</v>
-      </c>
-      <c r="H72" s="4">
-        <v>3.6190000000000002</v>
-      </c>
-      <c r="I72" s="4">
-        <v>3.3580000000000001</v>
+      <c r="G72" s="9">
+        <v>1401</v>
+      </c>
+      <c r="H72" s="9">
+        <v>3619</v>
+      </c>
+      <c r="I72" s="9">
+        <v>3358</v>
       </c>
       <c r="J72" s="4">
         <v>616</v>
@@ -3799,8 +3811,8 @@
       <c r="L72" s="4">
         <v>119</v>
       </c>
-      <c r="M72" s="5">
-        <v>11.316000000000001</v>
+      <c r="M72" s="7">
+        <v>11316</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3814,20 +3826,20 @@
       <c r="D73" s="4">
         <v>214</v>
       </c>
-      <c r="E73" s="4">
-        <v>3.081</v>
+      <c r="E73" s="9">
+        <v>3081</v>
       </c>
       <c r="F73" s="4">
         <v>671</v>
       </c>
-      <c r="G73" s="4">
-        <v>1.5660000000000001</v>
-      </c>
-      <c r="H73" s="4">
-        <v>3.9089999999999998</v>
-      </c>
-      <c r="I73" s="4">
-        <v>2.4020000000000001</v>
+      <c r="G73" s="9">
+        <v>1566</v>
+      </c>
+      <c r="H73" s="9">
+        <v>3909</v>
+      </c>
+      <c r="I73" s="9">
+        <v>2402</v>
       </c>
       <c r="J73" s="4">
         <v>301</v>
@@ -3838,8 +3850,8 @@
       <c r="L73" s="4">
         <v>105</v>
       </c>
-      <c r="M73" s="5">
-        <v>12.419</v>
+      <c r="M73" s="7">
+        <v>12419</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3855,20 +3867,20 @@
       <c r="D74" s="4">
         <v>34</v>
       </c>
-      <c r="E74" s="4">
-        <v>1.536</v>
+      <c r="E74" s="9">
+        <v>1536</v>
       </c>
       <c r="F74" s="4">
         <v>614</v>
       </c>
-      <c r="G74" s="4">
-        <v>1.103</v>
-      </c>
-      <c r="H74" s="4">
-        <v>3.673</v>
-      </c>
-      <c r="I74" s="4">
-        <v>2.5150000000000001</v>
+      <c r="G74" s="9">
+        <v>1103</v>
+      </c>
+      <c r="H74" s="9">
+        <v>3673</v>
+      </c>
+      <c r="I74" s="9">
+        <v>2515</v>
       </c>
       <c r="J74" s="4">
         <v>272</v>
@@ -3879,8 +3891,8 @@
       <c r="L74" s="4">
         <v>125</v>
       </c>
-      <c r="M74" s="5">
-        <v>9.9860000000000007</v>
+      <c r="M74" s="7">
+        <v>9986</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3894,20 +3906,20 @@
       <c r="D75" s="4">
         <v>319</v>
       </c>
-      <c r="E75" s="4">
-        <v>3.5259999999999998</v>
+      <c r="E75" s="9">
+        <v>3526</v>
       </c>
       <c r="F75" s="4">
         <v>426</v>
       </c>
-      <c r="G75" s="4">
-        <v>1.21</v>
-      </c>
-      <c r="H75" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="I75" s="4">
-        <v>1.4650000000000001</v>
+      <c r="G75" s="9">
+        <v>1210</v>
+      </c>
+      <c r="H75" s="9">
+        <v>3300</v>
+      </c>
+      <c r="I75" s="9">
+        <v>1465</v>
       </c>
       <c r="J75" s="4">
         <v>123</v>
@@ -3918,8 +3930,8 @@
       <c r="L75" s="4">
         <v>146</v>
       </c>
-      <c r="M75" s="5">
-        <v>10.736000000000001</v>
+      <c r="M75" s="7">
+        <v>10736</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3935,8 +3947,8 @@
       <c r="D76" s="4">
         <v>66</v>
       </c>
-      <c r="E76" s="4">
-        <v>1.9350000000000001</v>
+      <c r="E76" s="9">
+        <v>1935</v>
       </c>
       <c r="F76" s="4">
         <v>301</v>
@@ -3944,11 +3956,11 @@
       <c r="G76" s="4">
         <v>876</v>
       </c>
-      <c r="H76" s="4">
-        <v>2.39</v>
-      </c>
-      <c r="I76" s="4">
-        <v>2.1480000000000001</v>
+      <c r="H76" s="9">
+        <v>2390</v>
+      </c>
+      <c r="I76" s="9">
+        <v>2148</v>
       </c>
       <c r="J76" s="4">
         <v>162</v>
@@ -3959,8 +3971,8 @@
       <c r="L76" s="4">
         <v>134</v>
       </c>
-      <c r="M76" s="5">
-        <v>8.09</v>
+      <c r="M76" s="7">
+        <v>8090</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3974,8 +3986,8 @@
       <c r="D77" s="4">
         <v>404</v>
       </c>
-      <c r="E77" s="4">
-        <v>3.444</v>
+      <c r="E77" s="9">
+        <v>3444</v>
       </c>
       <c r="F77" s="4">
         <v>185</v>
@@ -3983,11 +3995,11 @@
       <c r="G77" s="4">
         <v>983</v>
       </c>
-      <c r="H77" s="4">
-        <v>1.97</v>
-      </c>
-      <c r="I77" s="4">
-        <v>1.27</v>
+      <c r="H77" s="9">
+        <v>1970</v>
+      </c>
+      <c r="I77" s="9">
+        <v>1270</v>
       </c>
       <c r="J77" s="4">
         <v>59</v>
@@ -3998,8 +4010,8 @@
       <c r="L77" s="4">
         <v>129</v>
       </c>
-      <c r="M77" s="5">
-        <v>8.7629999999999999</v>
+      <c r="M77" s="7">
+        <v>8763</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -4015,8 +4027,8 @@
       <c r="D78" s="4">
         <v>68</v>
       </c>
-      <c r="E78" s="4">
-        <v>1.681</v>
+      <c r="E78" s="9">
+        <v>1681</v>
       </c>
       <c r="F78" s="4">
         <v>93</v>
@@ -4024,11 +4036,11 @@
       <c r="G78" s="4">
         <v>583</v>
       </c>
-      <c r="H78" s="4">
-        <v>1.34</v>
-      </c>
-      <c r="I78" s="4">
-        <v>1.4810000000000001</v>
+      <c r="H78" s="9">
+        <v>1340</v>
+      </c>
+      <c r="I78" s="9">
+        <v>1481</v>
       </c>
       <c r="J78" s="4">
         <v>90</v>
@@ -4039,8 +4051,8 @@
       <c r="L78" s="4">
         <v>92</v>
       </c>
-      <c r="M78" s="5">
-        <v>5.4820000000000002</v>
+      <c r="M78" s="7">
+        <v>5482</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -4054,8 +4066,8 @@
       <c r="D79" s="4">
         <v>421</v>
       </c>
-      <c r="E79" s="4">
-        <v>2.5339999999999998</v>
+      <c r="E79" s="9">
+        <v>2534</v>
       </c>
       <c r="F79" s="4">
         <v>59</v>
@@ -4063,8 +4075,8 @@
       <c r="G79" s="4">
         <v>581</v>
       </c>
-      <c r="H79" s="4">
-        <v>1.052</v>
+      <c r="H79" s="9">
+        <v>1052</v>
       </c>
       <c r="I79" s="4">
         <v>855</v>
@@ -4078,8 +4090,8 @@
       <c r="L79" s="4">
         <v>121</v>
       </c>
-      <c r="M79" s="5">
-        <v>6.0179999999999998</v>
+      <c r="M79" s="7">
+        <v>6018</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -4095,8 +4107,8 @@
       <c r="D80" s="4">
         <v>158</v>
       </c>
-      <c r="E80" s="4">
-        <v>1.619</v>
+      <c r="E80" s="9">
+        <v>1619</v>
       </c>
       <c r="F80" s="4">
         <v>45</v>
@@ -4107,8 +4119,8 @@
       <c r="H80" s="4">
         <v>776</v>
       </c>
-      <c r="I80" s="4">
-        <v>1.2030000000000001</v>
+      <c r="I80" s="9">
+        <v>1203</v>
       </c>
       <c r="J80" s="4">
         <v>47</v>
@@ -4119,8 +4131,8 @@
       <c r="L80" s="4">
         <v>120</v>
       </c>
-      <c r="M80" s="5">
-        <v>4.5519999999999996</v>
+      <c r="M80" s="7">
+        <v>4552</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4128,14 +4140,14 @@
       <c r="B81" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="4">
-        <v>1.0620000000000001</v>
+      <c r="C81" s="9">
+        <v>1062</v>
       </c>
       <c r="D81" s="4">
         <v>853</v>
       </c>
-      <c r="E81" s="4">
-        <v>2.5070000000000001</v>
+      <c r="E81" s="9">
+        <v>2507</v>
       </c>
       <c r="F81" s="4">
         <v>33</v>
@@ -4158,8 +4170,8 @@
       <c r="L81" s="4">
         <v>127</v>
       </c>
-      <c r="M81" s="5">
-        <v>6.1349999999999998</v>
+      <c r="M81" s="7">
+        <v>6135</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4167,38 +4179,38 @@
         <v>12</v>
       </c>
       <c r="B82" s="6"/>
-      <c r="C82" s="5">
-        <v>2.3479999999999999</v>
-      </c>
-      <c r="D82" s="5">
-        <v>3.339</v>
-      </c>
-      <c r="E82" s="5">
-        <v>32.939</v>
-      </c>
-      <c r="F82" s="5">
-        <v>11.173</v>
-      </c>
-      <c r="G82" s="5">
-        <v>26.286999999999999</v>
-      </c>
-      <c r="H82" s="5">
-        <v>98.042000000000002</v>
-      </c>
-      <c r="I82" s="5">
-        <v>95.116</v>
-      </c>
-      <c r="J82" s="5">
-        <v>14.253</v>
-      </c>
-      <c r="K82" s="5">
-        <v>1.9910000000000001</v>
-      </c>
-      <c r="L82" s="5">
-        <v>2.3809999999999998</v>
-      </c>
-      <c r="M82" s="5">
-        <v>287.86900000000003</v>
+      <c r="C82" s="7">
+        <v>2348</v>
+      </c>
+      <c r="D82" s="7">
+        <v>3339</v>
+      </c>
+      <c r="E82" s="7">
+        <v>32939</v>
+      </c>
+      <c r="F82" s="7">
+        <v>11173</v>
+      </c>
+      <c r="G82" s="7">
+        <v>26287</v>
+      </c>
+      <c r="H82" s="7">
+        <v>98042</v>
+      </c>
+      <c r="I82" s="7">
+        <v>95116</v>
+      </c>
+      <c r="J82" s="7">
+        <v>14253</v>
+      </c>
+      <c r="K82" s="7">
+        <v>1991</v>
+      </c>
+      <c r="L82" s="7">
+        <v>2381</v>
+      </c>
+      <c r="M82" s="7">
+        <v>287869</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5211,20 +5223,20 @@
       <c r="D108" s="5">
         <v>994</v>
       </c>
-      <c r="E108" s="5">
-        <v>3.673</v>
-      </c>
-      <c r="F108" s="5">
-        <v>1.552</v>
-      </c>
-      <c r="G108" s="5">
-        <v>1.9319999999999999</v>
-      </c>
-      <c r="H108" s="5">
-        <v>2.7610000000000001</v>
-      </c>
-      <c r="I108" s="5">
-        <v>1.1839999999999999</v>
+      <c r="E108" s="7">
+        <v>3673</v>
+      </c>
+      <c r="F108" s="7">
+        <v>1552</v>
+      </c>
+      <c r="G108" s="7">
+        <v>1932</v>
+      </c>
+      <c r="H108" s="7">
+        <v>2761</v>
+      </c>
+      <c r="I108" s="7">
+        <v>1184</v>
       </c>
       <c r="J108" s="5">
         <v>82</v>
@@ -5235,8 +5247,8 @@
       <c r="L108" s="5">
         <v>94</v>
       </c>
-      <c r="M108" s="5">
-        <v>12.788</v>
+      <c r="M108" s="7">
+        <v>12788</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5300,8 +5312,8 @@
       <c r="G110" s="4">
         <v>356</v>
       </c>
-      <c r="H110" s="4">
-        <v>1.016</v>
+      <c r="H110" s="9">
+        <v>1016</v>
       </c>
       <c r="I110" s="4">
         <v>170</v>
@@ -5315,8 +5327,8 @@
       <c r="L110" s="4">
         <v>11</v>
       </c>
-      <c r="M110" s="5">
-        <v>1.5629999999999999</v>
+      <c r="M110" s="7">
+        <v>1563</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5339,8 +5351,8 @@
       <c r="G111" s="4">
         <v>281</v>
       </c>
-      <c r="H111" s="4">
-        <v>1.0169999999999999</v>
+      <c r="H111" s="9">
+        <v>1017</v>
       </c>
       <c r="I111" s="4">
         <v>272</v>
@@ -5354,8 +5366,8 @@
       <c r="L111" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M111" s="5">
-        <v>1.581</v>
+      <c r="M111" s="7">
+        <v>1581</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -6246,23 +6258,23 @@
       <c r="C134" s="5">
         <v>442</v>
       </c>
-      <c r="D134" s="5">
-        <v>1.284</v>
-      </c>
-      <c r="E134" s="5">
-        <v>5.2930000000000001</v>
-      </c>
-      <c r="F134" s="5">
-        <v>1.9530000000000001</v>
-      </c>
-      <c r="G134" s="5">
-        <v>3.4609999999999999</v>
-      </c>
-      <c r="H134" s="5">
-        <v>5.4489999999999998</v>
-      </c>
-      <c r="I134" s="5">
-        <v>2.113</v>
+      <c r="D134" s="7">
+        <v>1284</v>
+      </c>
+      <c r="E134" s="7">
+        <v>5293</v>
+      </c>
+      <c r="F134" s="7">
+        <v>1953</v>
+      </c>
+      <c r="G134" s="7">
+        <v>3461</v>
+      </c>
+      <c r="H134" s="7">
+        <v>5449</v>
+      </c>
+      <c r="I134" s="7">
+        <v>2113</v>
       </c>
       <c r="J134" s="5">
         <v>136</v>
@@ -6273,8 +6285,8 @@
       <c r="L134" s="5">
         <v>71</v>
       </c>
-      <c r="M134" s="5">
-        <v>20.210999999999999</v>
+      <c r="M134" s="7">
+        <v>20211</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6353,8 +6365,8 @@
       <c r="L136" s="4">
         <v>6</v>
       </c>
-      <c r="M136" s="5">
-        <v>1.2589999999999999</v>
+      <c r="M136" s="7">
+        <v>1259</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6392,8 +6404,8 @@
       <c r="L137" s="4">
         <v>1</v>
       </c>
-      <c r="M137" s="5">
-        <v>1.147</v>
+      <c r="M137" s="7">
+        <v>1147</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -7281,26 +7293,26 @@
         <v>12</v>
       </c>
       <c r="B160" s="6"/>
-      <c r="C160" s="5">
-        <v>1.202</v>
+      <c r="C160" s="7">
+        <v>1202</v>
       </c>
       <c r="D160" s="5">
         <v>763</v>
       </c>
-      <c r="E160" s="5">
-        <v>5.266</v>
-      </c>
-      <c r="F160" s="5">
-        <v>1.77</v>
-      </c>
-      <c r="G160" s="5">
-        <v>2.3460000000000001</v>
-      </c>
-      <c r="H160" s="5">
-        <v>3.8490000000000002</v>
-      </c>
-      <c r="I160" s="5">
-        <v>1.9139999999999999</v>
+      <c r="E160" s="7">
+        <v>5266</v>
+      </c>
+      <c r="F160" s="7">
+        <v>1770</v>
+      </c>
+      <c r="G160" s="7">
+        <v>2346</v>
+      </c>
+      <c r="H160" s="7">
+        <v>3849</v>
+      </c>
+      <c r="I160" s="7">
+        <v>1914</v>
       </c>
       <c r="J160" s="5">
         <v>149</v>
@@ -7311,8 +7323,8 @@
       <c r="L160" s="5">
         <v>46</v>
       </c>
-      <c r="M160" s="5">
-        <v>17.312000000000001</v>
+      <c r="M160" s="7">
+        <v>17312</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -7391,8 +7403,8 @@
       <c r="L162" s="4">
         <v>19</v>
       </c>
-      <c r="M162" s="5">
-        <v>1.1990000000000001</v>
+      <c r="M162" s="7">
+        <v>1199</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7430,8 +7442,8 @@
       <c r="L163" s="4">
         <v>7</v>
       </c>
-      <c r="M163" s="5">
-        <v>1.1080000000000001</v>
+      <c r="M163" s="7">
+        <v>1108</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -8325,20 +8337,20 @@
       <c r="D186" s="5">
         <v>744</v>
       </c>
-      <c r="E186" s="5">
-        <v>4.6520000000000001</v>
-      </c>
-      <c r="F186" s="5">
-        <v>1.484</v>
-      </c>
-      <c r="G186" s="5">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="H186" s="5">
-        <v>4.415</v>
-      </c>
-      <c r="I186" s="5">
-        <v>1.8360000000000001</v>
+      <c r="E186" s="7">
+        <v>4652</v>
+      </c>
+      <c r="F186" s="7">
+        <v>1484</v>
+      </c>
+      <c r="G186" s="7">
+        <v>2833</v>
+      </c>
+      <c r="H186" s="7">
+        <v>4415</v>
+      </c>
+      <c r="I186" s="7">
+        <v>1836</v>
       </c>
       <c r="J186" s="5">
         <v>166</v>
@@ -8349,8 +8361,8 @@
       <c r="L186" s="5">
         <v>209</v>
       </c>
-      <c r="M186" s="5">
-        <v>17.032</v>
+      <c r="M186" s="7">
+        <v>17032</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -8411,11 +8423,11 @@
       <c r="F188" s="4">
         <v>1</v>
       </c>
-      <c r="G188" s="4">
-        <v>1.665</v>
-      </c>
-      <c r="H188" s="4">
-        <v>4.5789999999999997</v>
+      <c r="G188" s="9">
+        <v>1665</v>
+      </c>
+      <c r="H188" s="9">
+        <v>4579</v>
       </c>
       <c r="I188" s="4">
         <v>876</v>
@@ -8429,8 +8441,8 @@
       <c r="L188" s="4">
         <v>50</v>
       </c>
-      <c r="M188" s="5">
-        <v>7.2279999999999998</v>
+      <c r="M188" s="7">
+        <v>7228</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8450,14 +8462,14 @@
       <c r="F189" s="4">
         <v>2</v>
       </c>
-      <c r="G189" s="4">
-        <v>1.1839999999999999</v>
-      </c>
-      <c r="H189" s="4">
-        <v>4.51</v>
-      </c>
-      <c r="I189" s="4">
-        <v>1.331</v>
+      <c r="G189" s="9">
+        <v>1184</v>
+      </c>
+      <c r="H189" s="9">
+        <v>4510</v>
+      </c>
+      <c r="I189" s="9">
+        <v>1331</v>
       </c>
       <c r="J189" s="4">
         <v>12</v>
@@ -8468,8 +8480,8 @@
       <c r="L189" s="4">
         <v>9</v>
       </c>
-      <c r="M189" s="5">
-        <v>7.1239999999999997</v>
+      <c r="M189" s="7">
+        <v>7124</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8491,14 +8503,14 @@
       <c r="F190" s="4">
         <v>27</v>
       </c>
-      <c r="G190" s="4">
-        <v>1.0720000000000001</v>
-      </c>
-      <c r="H190" s="4">
-        <v>1.37</v>
-      </c>
-      <c r="I190" s="4">
-        <v>1.4570000000000001</v>
+      <c r="G190" s="9">
+        <v>1072</v>
+      </c>
+      <c r="H190" s="9">
+        <v>1370</v>
+      </c>
+      <c r="I190" s="9">
+        <v>1457</v>
       </c>
       <c r="J190" s="4">
         <v>116</v>
@@ -8509,8 +8521,8 @@
       <c r="L190" s="4">
         <v>11</v>
       </c>
-      <c r="M190" s="5">
-        <v>4.0999999999999996</v>
+      <c r="M190" s="7">
+        <v>4100</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8536,8 +8548,8 @@
       <c r="H191" s="4">
         <v>998</v>
       </c>
-      <c r="I191" s="4">
-        <v>1.925</v>
+      <c r="I191" s="9">
+        <v>1925</v>
       </c>
       <c r="J191" s="4">
         <v>134</v>
@@ -8548,8 +8560,8 @@
       <c r="L191" s="4">
         <v>10</v>
       </c>
-      <c r="M191" s="5">
-        <v>4.05</v>
+      <c r="M191" s="7">
+        <v>4050</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -8574,11 +8586,11 @@
       <c r="G192" s="4">
         <v>432</v>
       </c>
-      <c r="H192" s="4">
-        <v>1.175</v>
-      </c>
-      <c r="I192" s="4">
-        <v>1.2829999999999999</v>
+      <c r="H192" s="9">
+        <v>1175</v>
+      </c>
+      <c r="I192" s="9">
+        <v>1283</v>
       </c>
       <c r="J192" s="4">
         <v>150</v>
@@ -8589,8 +8601,8 @@
       <c r="L192" s="4">
         <v>14</v>
       </c>
-      <c r="M192" s="5">
-        <v>3.6240000000000001</v>
+      <c r="M192" s="7">
+        <v>3624</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -8613,11 +8625,11 @@
       <c r="G193" s="4">
         <v>389</v>
       </c>
-      <c r="H193" s="4">
-        <v>1.073</v>
-      </c>
-      <c r="I193" s="4">
-        <v>1.3149999999999999</v>
+      <c r="H193" s="9">
+        <v>1073</v>
+      </c>
+      <c r="I193" s="9">
+        <v>1315</v>
       </c>
       <c r="J193" s="4">
         <v>134</v>
@@ -8628,8 +8640,8 @@
       <c r="L193" s="4">
         <v>7</v>
       </c>
-      <c r="M193" s="5">
-        <v>3.8809999999999998</v>
+      <c r="M193" s="7">
+        <v>3881</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -8654,11 +8666,11 @@
       <c r="G194" s="4">
         <v>390</v>
       </c>
-      <c r="H194" s="4">
-        <v>1.5569999999999999</v>
-      </c>
-      <c r="I194" s="4">
-        <v>1.0920000000000001</v>
+      <c r="H194" s="9">
+        <v>1557</v>
+      </c>
+      <c r="I194" s="9">
+        <v>1092</v>
       </c>
       <c r="J194" s="4">
         <v>174</v>
@@ -8669,8 +8681,8 @@
       <c r="L194" s="4">
         <v>7</v>
       </c>
-      <c r="M194" s="5">
-        <v>4.306</v>
+      <c r="M194" s="7">
+        <v>4306</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -8693,11 +8705,11 @@
       <c r="G195" s="4">
         <v>390</v>
       </c>
-      <c r="H195" s="4">
-        <v>1.2989999999999999</v>
-      </c>
-      <c r="I195" s="4">
-        <v>1.0429999999999999</v>
+      <c r="H195" s="9">
+        <v>1299</v>
+      </c>
+      <c r="I195" s="9">
+        <v>1043</v>
       </c>
       <c r="J195" s="4">
         <v>106</v>
@@ -8708,8 +8720,8 @@
       <c r="L195" s="4">
         <v>8</v>
       </c>
-      <c r="M195" s="5">
-        <v>4.4370000000000003</v>
+      <c r="M195" s="7">
+        <v>4437</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -8734,8 +8746,8 @@
       <c r="G196" s="4">
         <v>797</v>
       </c>
-      <c r="H196" s="4">
-        <v>1.7569999999999999</v>
+      <c r="H196" s="9">
+        <v>1757</v>
       </c>
       <c r="I196" s="4">
         <v>981</v>
@@ -8749,8 +8761,8 @@
       <c r="L196" s="4">
         <v>20</v>
       </c>
-      <c r="M196" s="5">
-        <v>4.9349999999999996</v>
+      <c r="M196" s="7">
+        <v>4935</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -8764,8 +8776,8 @@
       <c r="D197" s="4">
         <v>33</v>
       </c>
-      <c r="E197" s="4">
-        <v>1.2689999999999999</v>
+      <c r="E197" s="9">
+        <v>1269</v>
       </c>
       <c r="F197" s="4">
         <v>511</v>
@@ -8773,8 +8785,8 @@
       <c r="G197" s="4">
         <v>641</v>
       </c>
-      <c r="H197" s="4">
-        <v>1.375</v>
+      <c r="H197" s="9">
+        <v>1375</v>
       </c>
       <c r="I197" s="4">
         <v>794</v>
@@ -8788,8 +8800,8 @@
       <c r="L197" s="4">
         <v>11</v>
       </c>
-      <c r="M197" s="5">
-        <v>4.7640000000000002</v>
+      <c r="M197" s="7">
+        <v>4764</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -8814,8 +8826,8 @@
       <c r="G198" s="4">
         <v>802</v>
       </c>
-      <c r="H198" s="4">
-        <v>1.5660000000000001</v>
+      <c r="H198" s="9">
+        <v>1566</v>
       </c>
       <c r="I198" s="4">
         <v>834</v>
@@ -8829,8 +8841,8 @@
       <c r="L198" s="4">
         <v>9</v>
       </c>
-      <c r="M198" s="5">
-        <v>4.7169999999999996</v>
+      <c r="M198" s="7">
+        <v>4717</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -8844,8 +8856,8 @@
       <c r="D199" s="4">
         <v>52</v>
       </c>
-      <c r="E199" s="4">
-        <v>1.603</v>
+      <c r="E199" s="9">
+        <v>1603</v>
       </c>
       <c r="F199" s="4">
         <v>627</v>
@@ -8853,8 +8865,8 @@
       <c r="G199" s="4">
         <v>655</v>
       </c>
-      <c r="H199" s="4">
-        <v>1.1679999999999999</v>
+      <c r="H199" s="9">
+        <v>1168</v>
       </c>
       <c r="I199" s="4">
         <v>534</v>
@@ -8868,8 +8880,8 @@
       <c r="L199" s="4">
         <v>15</v>
       </c>
-      <c r="M199" s="5">
-        <v>4.7309999999999999</v>
+      <c r="M199" s="7">
+        <v>4731</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -8894,8 +8906,8 @@
       <c r="G200" s="4">
         <v>944</v>
       </c>
-      <c r="H200" s="4">
-        <v>1.1499999999999999</v>
+      <c r="H200" s="9">
+        <v>1150</v>
       </c>
       <c r="I200" s="4">
         <v>623</v>
@@ -8909,8 +8921,8 @@
       <c r="L200" s="4">
         <v>11</v>
       </c>
-      <c r="M200" s="5">
-        <v>4.4939999999999998</v>
+      <c r="M200" s="7">
+        <v>4494</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -8924,8 +8936,8 @@
       <c r="D201" s="4">
         <v>77</v>
       </c>
-      <c r="E201" s="4">
-        <v>1.89</v>
+      <c r="E201" s="9">
+        <v>1890</v>
       </c>
       <c r="F201" s="4">
         <v>618</v>
@@ -8948,8 +8960,8 @@
       <c r="L201" s="4">
         <v>13</v>
       </c>
-      <c r="M201" s="5">
-        <v>4.5389999999999997</v>
+      <c r="M201" s="7">
+        <v>4539</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -8965,8 +8977,8 @@
       <c r="D202" s="4">
         <v>26</v>
       </c>
-      <c r="E202" s="4">
-        <v>1.079</v>
+      <c r="E202" s="9">
+        <v>1079</v>
       </c>
       <c r="F202" s="4">
         <v>669</v>
@@ -8974,8 +8986,8 @@
       <c r="G202" s="4">
         <v>866</v>
       </c>
-      <c r="H202" s="4">
-        <v>1.0229999999999999</v>
+      <c r="H202" s="9">
+        <v>1023</v>
       </c>
       <c r="I202" s="4">
         <v>436</v>
@@ -8989,8 +9001,8 @@
       <c r="L202" s="4">
         <v>18</v>
       </c>
-      <c r="M202" s="5">
-        <v>4.1719999999999997</v>
+      <c r="M202" s="7">
+        <v>4172</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -9004,8 +9016,8 @@
       <c r="D203" s="4">
         <v>159</v>
       </c>
-      <c r="E203" s="4">
-        <v>2.02</v>
+      <c r="E203" s="9">
+        <v>2020</v>
       </c>
       <c r="F203" s="4">
         <v>427</v>
@@ -9028,8 +9040,8 @@
       <c r="L203" s="4">
         <v>10</v>
       </c>
-      <c r="M203" s="5">
-        <v>4.1310000000000002</v>
+      <c r="M203" s="7">
+        <v>4131</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -9045,8 +9057,8 @@
       <c r="D204" s="4">
         <v>36</v>
       </c>
-      <c r="E204" s="4">
-        <v>1.3</v>
+      <c r="E204" s="9">
+        <v>1300</v>
       </c>
       <c r="F204" s="4">
         <v>410</v>
@@ -9069,8 +9081,8 @@
       <c r="L204" s="4">
         <v>17</v>
       </c>
-      <c r="M204" s="5">
-        <v>3.52</v>
+      <c r="M204" s="7">
+        <v>3520</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -9084,8 +9096,8 @@
       <c r="D205" s="4">
         <v>348</v>
       </c>
-      <c r="E205" s="4">
-        <v>1.8169999999999999</v>
+      <c r="E205" s="9">
+        <v>1817</v>
       </c>
       <c r="F205" s="4">
         <v>207</v>
@@ -9108,8 +9120,8 @@
       <c r="L205" s="4">
         <v>14</v>
       </c>
-      <c r="M205" s="5">
-        <v>3.44</v>
+      <c r="M205" s="7">
+        <v>3440</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -9125,8 +9137,8 @@
       <c r="D206" s="4">
         <v>81</v>
       </c>
-      <c r="E206" s="4">
-        <v>1.2589999999999999</v>
+      <c r="E206" s="9">
+        <v>1259</v>
       </c>
       <c r="F206" s="4">
         <v>168</v>
@@ -9149,8 +9161,8 @@
       <c r="L206" s="4">
         <v>15</v>
       </c>
-      <c r="M206" s="5">
-        <v>2.7320000000000002</v>
+      <c r="M206" s="7">
+        <v>2732</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -9164,8 +9176,8 @@
       <c r="D207" s="4">
         <v>564</v>
       </c>
-      <c r="E207" s="4">
-        <v>1.226</v>
+      <c r="E207" s="9">
+        <v>1226</v>
       </c>
       <c r="F207" s="4">
         <v>89</v>
@@ -9188,8 +9200,8 @@
       <c r="L207" s="4">
         <v>13</v>
       </c>
-      <c r="M207" s="5">
-        <v>2.75</v>
+      <c r="M207" s="7">
+        <v>2750</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -9205,8 +9217,8 @@
       <c r="D208" s="4">
         <v>115</v>
       </c>
-      <c r="E208" s="4">
-        <v>1.0109999999999999</v>
+      <c r="E208" s="9">
+        <v>1011</v>
       </c>
       <c r="F208" s="4">
         <v>55</v>
@@ -9229,8 +9241,8 @@
       <c r="L208" s="4">
         <v>12</v>
       </c>
-      <c r="M208" s="5">
-        <v>1.901</v>
+      <c r="M208" s="7">
+        <v>1901</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
@@ -9268,8 +9280,8 @@
       <c r="L209" s="4">
         <v>16</v>
       </c>
-      <c r="M209" s="5">
-        <v>2.2040000000000002</v>
+      <c r="M209" s="7">
+        <v>2204</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -9285,8 +9297,8 @@
       <c r="D210" s="4">
         <v>467</v>
       </c>
-      <c r="E210" s="4">
-        <v>1.18</v>
+      <c r="E210" s="9">
+        <v>1180</v>
       </c>
       <c r="F210" s="4">
         <v>15</v>
@@ -9309,8 +9321,8 @@
       <c r="L210" s="4">
         <v>12</v>
       </c>
-      <c r="M210" s="5">
-        <v>2.2690000000000001</v>
+      <c r="M210" s="7">
+        <v>2269</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -9318,8 +9330,8 @@
       <c r="B211" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C211" s="4">
-        <v>1.663</v>
+      <c r="C211" s="9">
+        <v>1663</v>
       </c>
       <c r="D211" s="4">
         <v>913</v>
@@ -9348,8 +9360,8 @@
       <c r="L211" s="4">
         <v>12</v>
       </c>
-      <c r="M211" s="5">
-        <v>3.3620000000000001</v>
+      <c r="M211" s="7">
+        <v>3362</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
@@ -9357,29 +9369,29 @@
         <v>12</v>
       </c>
       <c r="B212" s="6"/>
-      <c r="C212" s="5">
-        <v>3.4460000000000002</v>
-      </c>
-      <c r="D212" s="5">
-        <v>3.7669999999999999</v>
-      </c>
-      <c r="E212" s="5">
-        <v>20.582000000000001</v>
-      </c>
-      <c r="F212" s="5">
-        <v>8.6530000000000005</v>
-      </c>
-      <c r="G212" s="5">
-        <v>14.234999999999999</v>
-      </c>
-      <c r="H212" s="5">
-        <v>28.654</v>
-      </c>
-      <c r="I212" s="5">
-        <v>16.256</v>
-      </c>
-      <c r="J212" s="5">
-        <v>1.4139999999999999</v>
+      <c r="C212" s="7">
+        <v>3446</v>
+      </c>
+      <c r="D212" s="7">
+        <v>3767</v>
+      </c>
+      <c r="E212" s="7">
+        <v>20582</v>
+      </c>
+      <c r="F212" s="7">
+        <v>8653</v>
+      </c>
+      <c r="G212" s="7">
+        <v>14235</v>
+      </c>
+      <c r="H212" s="7">
+        <v>28654</v>
+      </c>
+      <c r="I212" s="7">
+        <v>16256</v>
+      </c>
+      <c r="J212" s="7">
+        <v>1414</v>
       </c>
       <c r="K212" s="5">
         <v>70</v>
@@ -9387,8 +9399,8 @@
       <c r="L212" s="5">
         <v>334</v>
       </c>
-      <c r="M212" s="5">
-        <v>97.411000000000001</v>
+      <c r="M212" s="7">
+        <v>97411</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -10401,20 +10413,20 @@
       <c r="D238" s="5">
         <v>556</v>
       </c>
-      <c r="E238" s="5">
-        <v>4.3659999999999997</v>
-      </c>
-      <c r="F238" s="5">
-        <v>1.427</v>
-      </c>
-      <c r="G238" s="5">
-        <v>2.0819999999999999</v>
-      </c>
-      <c r="H238" s="5">
-        <v>4.1139999999999999</v>
-      </c>
-      <c r="I238" s="5">
-        <v>2.0630000000000002</v>
+      <c r="E238" s="7">
+        <v>4366</v>
+      </c>
+      <c r="F238" s="7">
+        <v>1427</v>
+      </c>
+      <c r="G238" s="7">
+        <v>2082</v>
+      </c>
+      <c r="H238" s="7">
+        <v>4114</v>
+      </c>
+      <c r="I238" s="7">
+        <v>2063</v>
       </c>
       <c r="J238" s="5">
         <v>183</v>
@@ -10425,8 +10437,8 @@
       <c r="L238" s="5">
         <v>57</v>
       </c>
-      <c r="M238" s="5">
-        <v>15.273999999999999</v>
+      <c r="M238" s="7">
+        <v>15274</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -11439,20 +11451,20 @@
       <c r="D264" s="5">
         <v>540</v>
       </c>
-      <c r="E264" s="5">
-        <v>2.6269999999999998</v>
-      </c>
-      <c r="F264" s="5">
-        <v>1.35</v>
-      </c>
-      <c r="G264" s="5">
-        <v>1.752</v>
-      </c>
-      <c r="H264" s="5">
-        <v>2.5430000000000001</v>
-      </c>
-      <c r="I264" s="5">
-        <v>1.048</v>
+      <c r="E264" s="7">
+        <v>2627</v>
+      </c>
+      <c r="F264" s="7">
+        <v>1350</v>
+      </c>
+      <c r="G264" s="7">
+        <v>1752</v>
+      </c>
+      <c r="H264" s="7">
+        <v>2543</v>
+      </c>
+      <c r="I264" s="7">
+        <v>1048</v>
       </c>
       <c r="J264" s="5">
         <v>83</v>
@@ -11463,8 +11475,8 @@
       <c r="L264" s="5">
         <v>75</v>
       </c>
-      <c r="M264" s="5">
-        <v>10.728999999999999</v>
+      <c r="M264" s="7">
+        <v>10729</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -11525,14 +11537,14 @@
       <c r="F266" s="4">
         <v>3</v>
       </c>
-      <c r="G266" s="4">
-        <v>2.4660000000000002</v>
-      </c>
-      <c r="H266" s="4">
-        <v>7.149</v>
-      </c>
-      <c r="I266" s="4">
-        <v>1.4650000000000001</v>
+      <c r="G266" s="9">
+        <v>2466</v>
+      </c>
+      <c r="H266" s="9">
+        <v>7149</v>
+      </c>
+      <c r="I266" s="9">
+        <v>1465</v>
       </c>
       <c r="J266" s="4">
         <v>8</v>
@@ -11543,8 +11555,8 @@
       <c r="L266" s="4">
         <v>86</v>
       </c>
-      <c r="M266" s="5">
-        <v>11.279</v>
+      <c r="M266" s="7">
+        <v>11279</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -11564,14 +11576,14 @@
       <c r="F267" s="4">
         <v>3</v>
       </c>
-      <c r="G267" s="4">
-        <v>2.12</v>
-      </c>
-      <c r="H267" s="4">
-        <v>7.444</v>
-      </c>
-      <c r="I267" s="4">
-        <v>2.1579999999999999</v>
+      <c r="G267" s="9">
+        <v>2120</v>
+      </c>
+      <c r="H267" s="9">
+        <v>7444</v>
+      </c>
+      <c r="I267" s="9">
+        <v>2158</v>
       </c>
       <c r="J267" s="4">
         <v>12</v>
@@ -11582,8 +11594,8 @@
       <c r="L267" s="4">
         <v>23</v>
       </c>
-      <c r="M267" s="5">
-        <v>11.9</v>
+      <c r="M267" s="7">
+        <v>11900</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -11605,14 +11617,14 @@
       <c r="F268" s="4">
         <v>68</v>
       </c>
-      <c r="G268" s="4">
-        <v>2</v>
-      </c>
-      <c r="H268" s="4">
-        <v>2.9409999999999998</v>
-      </c>
-      <c r="I268" s="4">
-        <v>3.22</v>
+      <c r="G268" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H268" s="9">
+        <v>2941</v>
+      </c>
+      <c r="I268" s="9">
+        <v>3220</v>
       </c>
       <c r="J268" s="4">
         <v>219</v>
@@ -11623,8 +11635,8 @@
       <c r="L268" s="4">
         <v>30</v>
       </c>
-      <c r="M268" s="5">
-        <v>8.5609999999999999</v>
+      <c r="M268" s="7">
+        <v>8561</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -11644,14 +11656,14 @@
       <c r="F269" s="4">
         <v>92</v>
       </c>
-      <c r="G269" s="4">
-        <v>2.0110000000000001</v>
-      </c>
-      <c r="H269" s="4">
-        <v>2.4449999999999998</v>
-      </c>
-      <c r="I269" s="4">
-        <v>4.0069999999999997</v>
+      <c r="G269" s="9">
+        <v>2011</v>
+      </c>
+      <c r="H269" s="9">
+        <v>2445</v>
+      </c>
+      <c r="I269" s="9">
+        <v>4007</v>
       </c>
       <c r="J269" s="4">
         <v>284</v>
@@ -11662,8 +11674,8 @@
       <c r="L269" s="4">
         <v>29</v>
       </c>
-      <c r="M269" s="5">
-        <v>9.1790000000000003</v>
+      <c r="M269" s="7">
+        <v>9179</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
@@ -11682,17 +11694,17 @@
       <c r="E270" s="4">
         <v>66</v>
       </c>
-      <c r="F270" s="4">
-        <v>1.0529999999999999</v>
-      </c>
-      <c r="G270" s="4">
-        <v>1.048</v>
-      </c>
-      <c r="H270" s="4">
-        <v>2.968</v>
-      </c>
-      <c r="I270" s="4">
-        <v>2.8849999999999998</v>
+      <c r="F270" s="9">
+        <v>1053</v>
+      </c>
+      <c r="G270" s="9">
+        <v>1048</v>
+      </c>
+      <c r="H270" s="9">
+        <v>2968</v>
+      </c>
+      <c r="I270" s="9">
+        <v>2885</v>
       </c>
       <c r="J270" s="4">
         <v>332</v>
@@ -11703,8 +11715,8 @@
       <c r="L270" s="4">
         <v>31</v>
       </c>
-      <c r="M270" s="5">
-        <v>8.4830000000000005</v>
+      <c r="M270" s="7">
+        <v>8483</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
@@ -11721,17 +11733,17 @@
       <c r="E271" s="4">
         <v>162</v>
       </c>
-      <c r="F271" s="4">
-        <v>1.425</v>
+      <c r="F271" s="9">
+        <v>1425</v>
       </c>
       <c r="G271" s="4">
         <v>870</v>
       </c>
-      <c r="H271" s="4">
-        <v>2.4409999999999998</v>
-      </c>
-      <c r="I271" s="4">
-        <v>2.9340000000000002</v>
+      <c r="H271" s="9">
+        <v>2441</v>
+      </c>
+      <c r="I271" s="9">
+        <v>2934</v>
       </c>
       <c r="J271" s="4">
         <v>300</v>
@@ -11742,8 +11754,8 @@
       <c r="L271" s="4">
         <v>34</v>
       </c>
-      <c r="M271" s="5">
-        <v>8.484</v>
+      <c r="M271" s="7">
+        <v>8484</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
@@ -11762,17 +11774,17 @@
       <c r="E272" s="4">
         <v>398</v>
       </c>
-      <c r="F272" s="4">
-        <v>1.329</v>
+      <c r="F272" s="9">
+        <v>1329</v>
       </c>
       <c r="G272" s="4">
         <v>928</v>
       </c>
-      <c r="H272" s="4">
-        <v>3.2669999999999999</v>
-      </c>
-      <c r="I272" s="4">
-        <v>2.1629999999999998</v>
+      <c r="H272" s="9">
+        <v>3267</v>
+      </c>
+      <c r="I272" s="9">
+        <v>2163</v>
       </c>
       <c r="J272" s="4">
         <v>245</v>
@@ -11783,8 +11795,8 @@
       <c r="L272" s="4">
         <v>40</v>
       </c>
-      <c r="M272" s="5">
-        <v>8.4740000000000002</v>
+      <c r="M272" s="7">
+        <v>8474</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
@@ -11798,20 +11810,20 @@
       <c r="D273" s="4">
         <v>152</v>
       </c>
-      <c r="E273" s="4">
-        <v>1.343</v>
-      </c>
-      <c r="F273" s="4">
-        <v>1.1819999999999999</v>
+      <c r="E273" s="9">
+        <v>1343</v>
+      </c>
+      <c r="F273" s="9">
+        <v>1182</v>
       </c>
       <c r="G273" s="4">
         <v>941</v>
       </c>
-      <c r="H273" s="4">
-        <v>2.4790000000000001</v>
-      </c>
-      <c r="I273" s="4">
-        <v>1.6060000000000001</v>
+      <c r="H273" s="9">
+        <v>2479</v>
+      </c>
+      <c r="I273" s="9">
+        <v>1606</v>
       </c>
       <c r="J273" s="4">
         <v>163</v>
@@ -11822,8 +11834,8 @@
       <c r="L273" s="4">
         <v>21</v>
       </c>
-      <c r="M273" s="5">
-        <v>7.992</v>
+      <c r="M273" s="7">
+        <v>7992</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
@@ -11842,17 +11854,17 @@
       <c r="E274" s="4">
         <v>754</v>
       </c>
-      <c r="F274" s="4">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="G274" s="4">
-        <v>1.385</v>
-      </c>
-      <c r="H274" s="4">
-        <v>3.2530000000000001</v>
-      </c>
-      <c r="I274" s="4">
-        <v>1.329</v>
+      <c r="F274" s="9">
+        <v>1140</v>
+      </c>
+      <c r="G274" s="9">
+        <v>1385</v>
+      </c>
+      <c r="H274" s="9">
+        <v>3253</v>
+      </c>
+      <c r="I274" s="9">
+        <v>1329</v>
       </c>
       <c r="J274" s="4">
         <v>204</v>
@@ -11863,8 +11875,8 @@
       <c r="L274" s="4">
         <v>15</v>
       </c>
-      <c r="M274" s="5">
-        <v>8.1609999999999996</v>
+      <c r="M274" s="7">
+        <v>8161</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -11878,17 +11890,17 @@
       <c r="D275" s="4">
         <v>120</v>
       </c>
-      <c r="E275" s="4">
-        <v>2.052</v>
+      <c r="E275" s="9">
+        <v>2052</v>
       </c>
       <c r="F275" s="4">
         <v>864</v>
       </c>
-      <c r="G275" s="4">
-        <v>1.52</v>
-      </c>
-      <c r="H275" s="4">
-        <v>2.2839999999999998</v>
+      <c r="G275" s="9">
+        <v>1520</v>
+      </c>
+      <c r="H275" s="9">
+        <v>2284</v>
       </c>
       <c r="I275" s="4">
         <v>924</v>
@@ -11902,8 +11914,8 @@
       <c r="L275" s="4">
         <v>26</v>
       </c>
-      <c r="M275" s="5">
-        <v>8.0009999999999994</v>
+      <c r="M275" s="7">
+        <v>8001</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
@@ -11922,14 +11934,14 @@
       <c r="E276" s="4">
         <v>867</v>
       </c>
-      <c r="F276" s="4">
-        <v>1.3320000000000001</v>
-      </c>
-      <c r="G276" s="4">
-        <v>1.405</v>
-      </c>
-      <c r="H276" s="4">
-        <v>2.5030000000000001</v>
+      <c r="F276" s="9">
+        <v>1332</v>
+      </c>
+      <c r="G276" s="9">
+        <v>1405</v>
+      </c>
+      <c r="H276" s="9">
+        <v>2503</v>
       </c>
       <c r="I276" s="4">
         <v>908</v>
@@ -11943,8 +11955,8 @@
       <c r="L276" s="4">
         <v>36</v>
       </c>
-      <c r="M276" s="5">
-        <v>7.2270000000000003</v>
+      <c r="M276" s="7">
+        <v>7227</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
@@ -11958,17 +11970,17 @@
       <c r="D277" s="4">
         <v>96</v>
       </c>
-      <c r="E277" s="4">
-        <v>2.2549999999999999</v>
+      <c r="E277" s="9">
+        <v>2255</v>
       </c>
       <c r="F277" s="4">
         <v>928</v>
       </c>
-      <c r="G277" s="4">
-        <v>1.333</v>
-      </c>
-      <c r="H277" s="4">
-        <v>1.696</v>
+      <c r="G277" s="9">
+        <v>1333</v>
+      </c>
+      <c r="H277" s="9">
+        <v>1696</v>
       </c>
       <c r="I277" s="4">
         <v>500</v>
@@ -11982,8 +11994,8 @@
       <c r="L277" s="4">
         <v>36</v>
       </c>
-      <c r="M277" s="5">
-        <v>6.9889999999999999</v>
+      <c r="M277" s="7">
+        <v>6989</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
@@ -12002,14 +12014,14 @@
       <c r="E278" s="4">
         <v>997</v>
       </c>
-      <c r="F278" s="4">
-        <v>1.359</v>
-      </c>
-      <c r="G278" s="4">
-        <v>1.478</v>
-      </c>
-      <c r="H278" s="4">
-        <v>1.657</v>
+      <c r="F278" s="9">
+        <v>1359</v>
+      </c>
+      <c r="G278" s="9">
+        <v>1478</v>
+      </c>
+      <c r="H278" s="9">
+        <v>1657</v>
       </c>
       <c r="I278" s="4">
         <v>657</v>
@@ -12023,8 +12035,8 @@
       <c r="L278" s="4">
         <v>33</v>
       </c>
-      <c r="M278" s="5">
-        <v>6.359</v>
+      <c r="M278" s="7">
+        <v>6359</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -12038,17 +12050,17 @@
       <c r="D279" s="4">
         <v>144</v>
       </c>
-      <c r="E279" s="4">
-        <v>2.5779999999999998</v>
+      <c r="E279" s="9">
+        <v>2578</v>
       </c>
       <c r="F279" s="4">
         <v>872</v>
       </c>
-      <c r="G279" s="4">
-        <v>1.101</v>
-      </c>
-      <c r="H279" s="4">
-        <v>1.1439999999999999</v>
+      <c r="G279" s="9">
+        <v>1101</v>
+      </c>
+      <c r="H279" s="9">
+        <v>1144</v>
       </c>
       <c r="I279" s="4">
         <v>254</v>
@@ -12062,8 +12074,8 @@
       <c r="L279" s="4">
         <v>35</v>
       </c>
-      <c r="M279" s="5">
-        <v>6.3280000000000003</v>
+      <c r="M279" s="7">
+        <v>6328</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -12079,17 +12091,17 @@
       <c r="D280" s="4">
         <v>37</v>
       </c>
-      <c r="E280" s="4">
-        <v>1.286</v>
-      </c>
-      <c r="F280" s="4">
-        <v>1.2350000000000001</v>
-      </c>
-      <c r="G280" s="4">
-        <v>1.2450000000000001</v>
-      </c>
-      <c r="H280" s="4">
-        <v>1.278</v>
+      <c r="E280" s="9">
+        <v>1286</v>
+      </c>
+      <c r="F280" s="9">
+        <v>1235</v>
+      </c>
+      <c r="G280" s="9">
+        <v>1245</v>
+      </c>
+      <c r="H280" s="9">
+        <v>1278</v>
       </c>
       <c r="I280" s="4">
         <v>417</v>
@@ -12103,8 +12115,8 @@
       <c r="L280" s="4">
         <v>35</v>
       </c>
-      <c r="M280" s="5">
-        <v>5.6470000000000002</v>
+      <c r="M280" s="7">
+        <v>5647</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -12118,8 +12130,8 @@
       <c r="D281" s="4">
         <v>186</v>
       </c>
-      <c r="E281" s="4">
-        <v>2.661</v>
+      <c r="E281" s="9">
+        <v>2661</v>
       </c>
       <c r="F281" s="4">
         <v>542</v>
@@ -12142,8 +12154,8 @@
       <c r="L281" s="4">
         <v>21</v>
       </c>
-      <c r="M281" s="5">
-        <v>5.1630000000000003</v>
+      <c r="M281" s="7">
+        <v>5163</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -12159,8 +12171,8 @@
       <c r="D282" s="4">
         <v>30</v>
       </c>
-      <c r="E282" s="4">
-        <v>1.405</v>
+      <c r="E282" s="9">
+        <v>1405</v>
       </c>
       <c r="F282" s="4">
         <v>733</v>
@@ -12183,8 +12195,8 @@
       <c r="L282" s="4">
         <v>20</v>
       </c>
-      <c r="M282" s="5">
-        <v>4.0229999999999997</v>
+      <c r="M282" s="7">
+        <v>4023</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -12198,8 +12210,8 @@
       <c r="D283" s="4">
         <v>282</v>
       </c>
-      <c r="E283" s="4">
-        <v>2.1930000000000001</v>
+      <c r="E283" s="9">
+        <v>2193</v>
       </c>
       <c r="F283" s="4">
         <v>258</v>
@@ -12222,8 +12234,8 @@
       <c r="L283" s="4">
         <v>13</v>
       </c>
-      <c r="M283" s="5">
-        <v>3.8250000000000002</v>
+      <c r="M283" s="7">
+        <v>3825</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -12239,8 +12251,8 @@
       <c r="D284" s="4">
         <v>44</v>
       </c>
-      <c r="E284" s="4">
-        <v>1.367</v>
+      <c r="E284" s="9">
+        <v>1367</v>
       </c>
       <c r="F284" s="4">
         <v>227</v>
@@ -12263,8 +12275,8 @@
       <c r="L284" s="4">
         <v>19</v>
       </c>
-      <c r="M284" s="5">
-        <v>2.637</v>
+      <c r="M284" s="7">
+        <v>2637</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
@@ -12278,8 +12290,8 @@
       <c r="D285" s="4">
         <v>324</v>
       </c>
-      <c r="E285" s="4">
-        <v>1.361</v>
+      <c r="E285" s="9">
+        <v>1361</v>
       </c>
       <c r="F285" s="4">
         <v>78</v>
@@ -12302,8 +12314,8 @@
       <c r="L285" s="4">
         <v>12</v>
       </c>
-      <c r="M285" s="5">
-        <v>2.5289999999999999</v>
+      <c r="M285" s="7">
+        <v>2529</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -12343,8 +12355,8 @@
       <c r="L286" s="4">
         <v>15</v>
       </c>
-      <c r="M286" s="5">
-        <v>1.4930000000000001</v>
+      <c r="M286" s="7">
+        <v>1493</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
@@ -12382,8 +12394,8 @@
       <c r="L287" s="4">
         <v>16</v>
       </c>
-      <c r="M287" s="5">
-        <v>1.708</v>
+      <c r="M287" s="7">
+        <v>1708</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
@@ -12423,8 +12435,8 @@
       <c r="L288" s="4">
         <v>13</v>
       </c>
-      <c r="M288" s="5">
-        <v>1.2529999999999999</v>
+      <c r="M288" s="7">
+        <v>1253</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
@@ -12462,8 +12474,8 @@
       <c r="L289" s="4">
         <v>17</v>
       </c>
-      <c r="M289" s="5">
-        <v>1.8740000000000001</v>
+      <c r="M289" s="7">
+        <v>1874</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
@@ -12471,29 +12483,29 @@
         <v>12</v>
       </c>
       <c r="B290" s="6"/>
-      <c r="C290" s="5">
-        <v>2.79</v>
-      </c>
-      <c r="D290" s="5">
-        <v>2.9580000000000002</v>
-      </c>
-      <c r="E290" s="5">
-        <v>25.102</v>
-      </c>
-      <c r="F290" s="5">
-        <v>14.827999999999999</v>
-      </c>
-      <c r="G290" s="5">
-        <v>24.334</v>
-      </c>
-      <c r="H290" s="5">
-        <v>47.749000000000002</v>
-      </c>
-      <c r="I290" s="5">
-        <v>26.26</v>
-      </c>
-      <c r="J290" s="5">
-        <v>2.2999999999999998</v>
+      <c r="C290" s="7">
+        <v>2790</v>
+      </c>
+      <c r="D290" s="7">
+        <v>2958</v>
+      </c>
+      <c r="E290" s="7">
+        <v>25102</v>
+      </c>
+      <c r="F290" s="7">
+        <v>14828</v>
+      </c>
+      <c r="G290" s="7">
+        <v>24334</v>
+      </c>
+      <c r="H290" s="7">
+        <v>47749</v>
+      </c>
+      <c r="I290" s="7">
+        <v>26260</v>
+      </c>
+      <c r="J290" s="7">
+        <v>2300</v>
       </c>
       <c r="K290" s="5">
         <v>592</v>
@@ -12501,8 +12513,8 @@
       <c r="L290" s="5">
         <v>656</v>
       </c>
-      <c r="M290" s="5">
-        <v>147.56899999999999</v>
+      <c r="M290" s="7">
+        <v>147569</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -12563,14 +12575,14 @@
       <c r="F292" s="4">
         <v>28</v>
       </c>
-      <c r="G292" s="4">
-        <v>12.398</v>
-      </c>
-      <c r="H292" s="4">
-        <v>24.242999999999999</v>
-      </c>
-      <c r="I292" s="4">
-        <v>4.0179999999999998</v>
+      <c r="G292" s="9">
+        <v>12398</v>
+      </c>
+      <c r="H292" s="9">
+        <v>24243</v>
+      </c>
+      <c r="I292" s="9">
+        <v>4018</v>
       </c>
       <c r="J292" s="4">
         <v>34</v>
@@ -12581,8 +12593,8 @@
       <c r="L292" s="4">
         <v>464</v>
       </c>
-      <c r="M292" s="5">
-        <v>41.722999999999999</v>
+      <c r="M292" s="7">
+        <v>41723</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -12602,14 +12614,14 @@
       <c r="F293" s="4">
         <v>13</v>
       </c>
-      <c r="G293" s="4">
-        <v>10.582000000000001</v>
-      </c>
-      <c r="H293" s="4">
-        <v>23.518000000000001</v>
-      </c>
-      <c r="I293" s="4">
-        <v>5.8680000000000003</v>
+      <c r="G293" s="9">
+        <v>10582</v>
+      </c>
+      <c r="H293" s="9">
+        <v>23518</v>
+      </c>
+      <c r="I293" s="9">
+        <v>5868</v>
       </c>
       <c r="J293" s="4">
         <v>60</v>
@@ -12620,8 +12632,8 @@
       <c r="L293" s="4">
         <v>213</v>
       </c>
-      <c r="M293" s="5">
-        <v>41.136000000000003</v>
+      <c r="M293" s="7">
+        <v>41136</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -12643,14 +12655,14 @@
       <c r="F294" s="4">
         <v>628</v>
       </c>
-      <c r="G294" s="4">
-        <v>8.3529999999999998</v>
-      </c>
-      <c r="H294" s="4">
-        <v>9.2949999999999999</v>
-      </c>
-      <c r="I294" s="4">
-        <v>8.9930000000000003</v>
+      <c r="G294" s="9">
+        <v>8353</v>
+      </c>
+      <c r="H294" s="9">
+        <v>9295</v>
+      </c>
+      <c r="I294" s="9">
+        <v>8993</v>
       </c>
       <c r="J294" s="4">
         <v>536</v>
@@ -12661,8 +12673,8 @@
       <c r="L294" s="4">
         <v>240</v>
       </c>
-      <c r="M294" s="5">
-        <v>29.117000000000001</v>
+      <c r="M294" s="7">
+        <v>29117</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -12673,23 +12685,23 @@
       <c r="C295" s="4">
         <v>206</v>
       </c>
-      <c r="D295" s="4">
-        <v>1.198</v>
-      </c>
-      <c r="E295" s="4">
-        <v>1.4019999999999999</v>
+      <c r="D295" s="9">
+        <v>1198</v>
+      </c>
+      <c r="E295" s="9">
+        <v>1402</v>
       </c>
       <c r="F295" s="4">
         <v>625</v>
       </c>
-      <c r="G295" s="4">
-        <v>6.8760000000000003</v>
-      </c>
-      <c r="H295" s="4">
-        <v>7</v>
-      </c>
-      <c r="I295" s="4">
-        <v>10.308</v>
+      <c r="G295" s="9">
+        <v>6876</v>
+      </c>
+      <c r="H295" s="9">
+        <v>7000</v>
+      </c>
+      <c r="I295" s="9">
+        <v>10308</v>
       </c>
       <c r="J295" s="4">
         <v>754</v>
@@ -12700,8 +12712,8 @@
       <c r="L295" s="4">
         <v>198</v>
       </c>
-      <c r="M295" s="5">
-        <v>28.568000000000001</v>
+      <c r="M295" s="7">
+        <v>28568</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -12720,17 +12732,17 @@
       <c r="E296" s="4">
         <v>667</v>
       </c>
-      <c r="F296" s="4">
-        <v>4.8220000000000001</v>
-      </c>
-      <c r="G296" s="4">
-        <v>4.2670000000000003</v>
-      </c>
-      <c r="H296" s="4">
-        <v>8.61</v>
-      </c>
-      <c r="I296" s="4">
-        <v>8.0660000000000007</v>
+      <c r="F296" s="9">
+        <v>4822</v>
+      </c>
+      <c r="G296" s="9">
+        <v>4267</v>
+      </c>
+      <c r="H296" s="9">
+        <v>8610</v>
+      </c>
+      <c r="I296" s="9">
+        <v>8066</v>
       </c>
       <c r="J296" s="4">
         <v>989</v>
@@ -12741,8 +12753,8 @@
       <c r="L296" s="4">
         <v>211</v>
       </c>
-      <c r="M296" s="5">
-        <v>28.599</v>
+      <c r="M296" s="7">
+        <v>28599</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
@@ -12753,23 +12765,23 @@
       <c r="C297" s="4">
         <v>611</v>
       </c>
-      <c r="D297" s="4">
-        <v>2.3580000000000001</v>
-      </c>
-      <c r="E297" s="4">
-        <v>1.5229999999999999</v>
-      </c>
-      <c r="F297" s="4">
-        <v>4.5170000000000003</v>
-      </c>
-      <c r="G297" s="4">
-        <v>2.952</v>
-      </c>
-      <c r="H297" s="4">
-        <v>6.9619999999999997</v>
-      </c>
-      <c r="I297" s="4">
-        <v>8.8130000000000006</v>
+      <c r="D297" s="9">
+        <v>2358</v>
+      </c>
+      <c r="E297" s="9">
+        <v>1523</v>
+      </c>
+      <c r="F297" s="9">
+        <v>4517</v>
+      </c>
+      <c r="G297" s="9">
+        <v>2952</v>
+      </c>
+      <c r="H297" s="9">
+        <v>6962</v>
+      </c>
+      <c r="I297" s="9">
+        <v>8813</v>
       </c>
       <c r="J297" s="4">
         <v>991</v>
@@ -12780,8 +12792,8 @@
       <c r="L297" s="4">
         <v>263</v>
       </c>
-      <c r="M297" s="5">
-        <v>29.024999999999999</v>
+      <c r="M297" s="7">
+        <v>29025</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -12797,23 +12809,23 @@
       <c r="D298" s="4">
         <v>622</v>
       </c>
-      <c r="E298" s="4">
-        <v>2.6869999999999998</v>
-      </c>
-      <c r="F298" s="4">
-        <v>4.9770000000000003</v>
-      </c>
-      <c r="G298" s="4">
-        <v>3.1280000000000001</v>
-      </c>
-      <c r="H298" s="4">
-        <v>10.007</v>
-      </c>
-      <c r="I298" s="4">
-        <v>7.4039999999999999</v>
-      </c>
-      <c r="J298" s="4">
-        <v>1.022</v>
+      <c r="E298" s="9">
+        <v>2687</v>
+      </c>
+      <c r="F298" s="9">
+        <v>4977</v>
+      </c>
+      <c r="G298" s="9">
+        <v>3128</v>
+      </c>
+      <c r="H298" s="9">
+        <v>10007</v>
+      </c>
+      <c r="I298" s="9">
+        <v>7404</v>
+      </c>
+      <c r="J298" s="9">
+        <v>1022</v>
       </c>
       <c r="K298" s="4">
         <v>90</v>
@@ -12821,8 +12833,8 @@
       <c r="L298" s="4">
         <v>266</v>
       </c>
-      <c r="M298" s="5">
-        <v>30.361000000000001</v>
+      <c r="M298" s="7">
+        <v>30361</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -12833,26 +12845,26 @@
       <c r="C299" s="4">
         <v>777</v>
       </c>
-      <c r="D299" s="4">
-        <v>1.5680000000000001</v>
-      </c>
-      <c r="E299" s="4">
-        <v>5.4980000000000002</v>
-      </c>
-      <c r="F299" s="4">
-        <v>3.4129999999999998</v>
-      </c>
-      <c r="G299" s="4">
-        <v>2.62</v>
-      </c>
-      <c r="H299" s="4">
-        <v>8.2479999999999993</v>
-      </c>
-      <c r="I299" s="4">
-        <v>6.7539999999999996</v>
-      </c>
-      <c r="J299" s="4">
-        <v>1.024</v>
+      <c r="D299" s="9">
+        <v>1568</v>
+      </c>
+      <c r="E299" s="9">
+        <v>5498</v>
+      </c>
+      <c r="F299" s="9">
+        <v>3413</v>
+      </c>
+      <c r="G299" s="9">
+        <v>2620</v>
+      </c>
+      <c r="H299" s="9">
+        <v>8248</v>
+      </c>
+      <c r="I299" s="9">
+        <v>6754</v>
+      </c>
+      <c r="J299" s="9">
+        <v>1024</v>
       </c>
       <c r="K299" s="4">
         <v>105</v>
@@ -12860,8 +12872,8 @@
       <c r="L299" s="4">
         <v>259</v>
       </c>
-      <c r="M299" s="5">
-        <v>30.265999999999998</v>
+      <c r="M299" s="7">
+        <v>30266</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -12877,23 +12889,23 @@
       <c r="D300" s="4">
         <v>447</v>
       </c>
-      <c r="E300" s="4">
-        <v>4.4080000000000004</v>
-      </c>
-      <c r="F300" s="4">
-        <v>4.2249999999999996</v>
-      </c>
-      <c r="G300" s="4">
-        <v>4.7290000000000001</v>
-      </c>
-      <c r="H300" s="4">
-        <v>10.69</v>
-      </c>
-      <c r="I300" s="4">
-        <v>5.8979999999999997</v>
-      </c>
-      <c r="J300" s="4">
-        <v>1.127</v>
+      <c r="E300" s="9">
+        <v>4408</v>
+      </c>
+      <c r="F300" s="9">
+        <v>4225</v>
+      </c>
+      <c r="G300" s="9">
+        <v>4729</v>
+      </c>
+      <c r="H300" s="9">
+        <v>10690</v>
+      </c>
+      <c r="I300" s="9">
+        <v>5898</v>
+      </c>
+      <c r="J300" s="9">
+        <v>1127</v>
       </c>
       <c r="K300" s="4">
         <v>144</v>
@@ -12901,8 +12913,8 @@
       <c r="L300" s="4">
         <v>281</v>
       </c>
-      <c r="M300" s="5">
-        <v>32.146999999999998</v>
+      <c r="M300" s="7">
+        <v>32147</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -12913,26 +12925,26 @@
       <c r="C301" s="4">
         <v>895</v>
       </c>
-      <c r="D301" s="4">
-        <v>1.601</v>
-      </c>
-      <c r="E301" s="4">
-        <v>7.9909999999999997</v>
-      </c>
-      <c r="F301" s="4">
-        <v>2.3460000000000001</v>
-      </c>
-      <c r="G301" s="4">
-        <v>3.9140000000000001</v>
-      </c>
-      <c r="H301" s="4">
-        <v>8.0540000000000003</v>
-      </c>
-      <c r="I301" s="4">
-        <v>5.1840000000000002</v>
-      </c>
-      <c r="J301" s="4">
-        <v>1.0049999999999999</v>
+      <c r="D301" s="9">
+        <v>1601</v>
+      </c>
+      <c r="E301" s="9">
+        <v>7991</v>
+      </c>
+      <c r="F301" s="9">
+        <v>2346</v>
+      </c>
+      <c r="G301" s="9">
+        <v>3914</v>
+      </c>
+      <c r="H301" s="9">
+        <v>8054</v>
+      </c>
+      <c r="I301" s="9">
+        <v>5184</v>
+      </c>
+      <c r="J301" s="9">
+        <v>1005</v>
       </c>
       <c r="K301" s="4">
         <v>157</v>
@@ -12940,8 +12952,8 @@
       <c r="L301" s="4">
         <v>285</v>
       </c>
-      <c r="M301" s="5">
-        <v>31.431999999999999</v>
+      <c r="M301" s="7">
+        <v>31432</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -12957,20 +12969,20 @@
       <c r="D302" s="4">
         <v>317</v>
       </c>
-      <c r="E302" s="4">
-        <v>4.3460000000000001</v>
-      </c>
-      <c r="F302" s="4">
-        <v>4.2080000000000002</v>
-      </c>
-      <c r="G302" s="4">
-        <v>4.3470000000000004</v>
-      </c>
-      <c r="H302" s="4">
-        <v>8.2129999999999992</v>
-      </c>
-      <c r="I302" s="4">
-        <v>4.4349999999999996</v>
+      <c r="E302" s="9">
+        <v>4346</v>
+      </c>
+      <c r="F302" s="9">
+        <v>4208</v>
+      </c>
+      <c r="G302" s="9">
+        <v>4347</v>
+      </c>
+      <c r="H302" s="9">
+        <v>8213</v>
+      </c>
+      <c r="I302" s="9">
+        <v>4435</v>
       </c>
       <c r="J302" s="4">
         <v>699</v>
@@ -12981,8 +12993,8 @@
       <c r="L302" s="4">
         <v>286</v>
       </c>
-      <c r="M302" s="5">
-        <v>27.167000000000002</v>
+      <c r="M302" s="7">
+        <v>27167</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
@@ -12993,23 +13005,23 @@
       <c r="C303" s="4">
         <v>839</v>
       </c>
-      <c r="D303" s="4">
-        <v>1.3169999999999999</v>
-      </c>
-      <c r="E303" s="4">
-        <v>7.7480000000000002</v>
-      </c>
-      <c r="F303" s="4">
-        <v>2.4060000000000001</v>
-      </c>
-      <c r="G303" s="4">
-        <v>3.488</v>
-      </c>
-      <c r="H303" s="4">
-        <v>6.1710000000000003</v>
-      </c>
-      <c r="I303" s="4">
-        <v>3.585</v>
+      <c r="D303" s="9">
+        <v>1317</v>
+      </c>
+      <c r="E303" s="9">
+        <v>7748</v>
+      </c>
+      <c r="F303" s="9">
+        <v>2406</v>
+      </c>
+      <c r="G303" s="9">
+        <v>3488</v>
+      </c>
+      <c r="H303" s="9">
+        <v>6171</v>
+      </c>
+      <c r="I303" s="9">
+        <v>3585</v>
       </c>
       <c r="J303" s="4">
         <v>468</v>
@@ -13020,8 +13032,8 @@
       <c r="L303" s="4">
         <v>261</v>
       </c>
-      <c r="M303" s="5">
-        <v>26.428000000000001</v>
+      <c r="M303" s="7">
+        <v>26428</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
@@ -13037,20 +13049,20 @@
       <c r="D304" s="4">
         <v>304</v>
       </c>
-      <c r="E304" s="4">
-        <v>4.048</v>
-      </c>
-      <c r="F304" s="4">
-        <v>4.0970000000000004</v>
-      </c>
-      <c r="G304" s="4">
-        <v>4.2779999999999996</v>
-      </c>
-      <c r="H304" s="4">
-        <v>5.6859999999999999</v>
-      </c>
-      <c r="I304" s="4">
-        <v>2.8559999999999999</v>
+      <c r="E304" s="9">
+        <v>4048</v>
+      </c>
+      <c r="F304" s="9">
+        <v>4097</v>
+      </c>
+      <c r="G304" s="9">
+        <v>4278</v>
+      </c>
+      <c r="H304" s="9">
+        <v>5686</v>
+      </c>
+      <c r="I304" s="9">
+        <v>2856</v>
       </c>
       <c r="J304" s="4">
         <v>414</v>
@@ -13061,8 +13073,8 @@
       <c r="L304" s="4">
         <v>289</v>
       </c>
-      <c r="M304" s="5">
-        <v>22.254000000000001</v>
+      <c r="M304" s="7">
+        <v>22254</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
@@ -13070,26 +13082,26 @@
       <c r="B305" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C305" s="4">
-        <v>1.0489999999999999</v>
-      </c>
-      <c r="D305" s="4">
-        <v>1.353</v>
-      </c>
-      <c r="E305" s="4">
-        <v>7.5830000000000002</v>
-      </c>
-      <c r="F305" s="4">
-        <v>1.996</v>
-      </c>
-      <c r="G305" s="4">
-        <v>3.27</v>
-      </c>
-      <c r="H305" s="4">
-        <v>4.3769999999999998</v>
-      </c>
-      <c r="I305" s="4">
-        <v>2.16</v>
+      <c r="C305" s="9">
+        <v>1049</v>
+      </c>
+      <c r="D305" s="9">
+        <v>1353</v>
+      </c>
+      <c r="E305" s="9">
+        <v>7583</v>
+      </c>
+      <c r="F305" s="9">
+        <v>1996</v>
+      </c>
+      <c r="G305" s="9">
+        <v>3270</v>
+      </c>
+      <c r="H305" s="9">
+        <v>4377</v>
+      </c>
+      <c r="I305" s="9">
+        <v>2160</v>
       </c>
       <c r="J305" s="4">
         <v>276</v>
@@ -13100,8 +13112,8 @@
       <c r="L305" s="4">
         <v>235</v>
       </c>
-      <c r="M305" s="5">
-        <v>22.408000000000001</v>
+      <c r="M305" s="7">
+        <v>22408</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
@@ -13117,20 +13129,20 @@
       <c r="D306" s="4">
         <v>371</v>
       </c>
-      <c r="E306" s="4">
-        <v>4.4059999999999997</v>
-      </c>
-      <c r="F306" s="4">
-        <v>3.4660000000000002</v>
-      </c>
-      <c r="G306" s="4">
-        <v>3.5379999999999998</v>
-      </c>
-      <c r="H306" s="4">
-        <v>4.8239999999999998</v>
-      </c>
-      <c r="I306" s="4">
-        <v>2.0089999999999999</v>
+      <c r="E306" s="9">
+        <v>4406</v>
+      </c>
+      <c r="F306" s="9">
+        <v>3466</v>
+      </c>
+      <c r="G306" s="9">
+        <v>3538</v>
+      </c>
+      <c r="H306" s="9">
+        <v>4824</v>
+      </c>
+      <c r="I306" s="9">
+        <v>2009</v>
       </c>
       <c r="J306" s="4">
         <v>281</v>
@@ -13141,8 +13153,8 @@
       <c r="L306" s="4">
         <v>287</v>
       </c>
-      <c r="M306" s="5">
-        <v>19.503</v>
+      <c r="M306" s="7">
+        <v>19503</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
@@ -13150,26 +13162,26 @@
       <c r="B307" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C307" s="4">
-        <v>1.391</v>
-      </c>
-      <c r="D307" s="4">
-        <v>1.4410000000000001</v>
-      </c>
-      <c r="E307" s="4">
-        <v>7.7679999999999998</v>
-      </c>
-      <c r="F307" s="4">
-        <v>1.419</v>
-      </c>
-      <c r="G307" s="4">
-        <v>2.472</v>
-      </c>
-      <c r="H307" s="4">
-        <v>3.6709999999999998</v>
-      </c>
-      <c r="I307" s="4">
-        <v>1.3149999999999999</v>
+      <c r="C307" s="9">
+        <v>1391</v>
+      </c>
+      <c r="D307" s="9">
+        <v>1441</v>
+      </c>
+      <c r="E307" s="9">
+        <v>7768</v>
+      </c>
+      <c r="F307" s="9">
+        <v>1419</v>
+      </c>
+      <c r="G307" s="9">
+        <v>2472</v>
+      </c>
+      <c r="H307" s="9">
+        <v>3671</v>
+      </c>
+      <c r="I307" s="9">
+        <v>1315</v>
       </c>
       <c r="J307" s="4">
         <v>164</v>
@@ -13180,8 +13192,8 @@
       <c r="L307" s="4">
         <v>269</v>
       </c>
-      <c r="M307" s="5">
-        <v>19.978999999999999</v>
+      <c r="M307" s="7">
+        <v>19979</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
@@ -13197,20 +13209,20 @@
       <c r="D308" s="4">
         <v>432</v>
       </c>
-      <c r="E308" s="4">
-        <v>4.9119999999999999</v>
-      </c>
-      <c r="F308" s="4">
-        <v>2.1219999999999999</v>
-      </c>
-      <c r="G308" s="4">
-        <v>2.27</v>
-      </c>
-      <c r="H308" s="4">
-        <v>3.85</v>
-      </c>
-      <c r="I308" s="4">
-        <v>1.401</v>
+      <c r="E308" s="9">
+        <v>4912</v>
+      </c>
+      <c r="F308" s="9">
+        <v>2122</v>
+      </c>
+      <c r="G308" s="9">
+        <v>2270</v>
+      </c>
+      <c r="H308" s="9">
+        <v>3850</v>
+      </c>
+      <c r="I308" s="9">
+        <v>1401</v>
       </c>
       <c r="J308" s="4">
         <v>201</v>
@@ -13221,8 +13233,8 @@
       <c r="L308" s="4">
         <v>270</v>
       </c>
-      <c r="M308" s="5">
-        <v>15.782999999999999</v>
+      <c r="M308" s="7">
+        <v>15783</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
@@ -13230,23 +13242,23 @@
       <c r="B309" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C309" s="4">
-        <v>1.7010000000000001</v>
-      </c>
-      <c r="D309" s="4">
-        <v>1.4319999999999999</v>
-      </c>
-      <c r="E309" s="4">
-        <v>7.6829999999999998</v>
+      <c r="C309" s="9">
+        <v>1701</v>
+      </c>
+      <c r="D309" s="9">
+        <v>1432</v>
+      </c>
+      <c r="E309" s="9">
+        <v>7683</v>
       </c>
       <c r="F309" s="4">
         <v>737</v>
       </c>
-      <c r="G309" s="4">
-        <v>1.5089999999999999</v>
-      </c>
-      <c r="H309" s="4">
-        <v>2.7930000000000001</v>
+      <c r="G309" s="9">
+        <v>1509</v>
+      </c>
+      <c r="H309" s="9">
+        <v>2793</v>
       </c>
       <c r="I309" s="4">
         <v>828</v>
@@ -13260,8 +13272,8 @@
       <c r="L309" s="4">
         <v>208</v>
       </c>
-      <c r="M309" s="5">
-        <v>17.029</v>
+      <c r="M309" s="7">
+        <v>17029</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
@@ -13277,20 +13289,20 @@
       <c r="D310" s="4">
         <v>476</v>
       </c>
-      <c r="E310" s="4">
-        <v>5.2949999999999999</v>
+      <c r="E310" s="9">
+        <v>5295</v>
       </c>
       <c r="F310" s="4">
         <v>936</v>
       </c>
-      <c r="G310" s="4">
-        <v>1.6279999999999999</v>
-      </c>
-      <c r="H310" s="4">
-        <v>2.2189999999999999</v>
-      </c>
-      <c r="I310" s="4">
-        <v>1.2250000000000001</v>
+      <c r="G310" s="9">
+        <v>1628</v>
+      </c>
+      <c r="H310" s="9">
+        <v>2219</v>
+      </c>
+      <c r="I310" s="9">
+        <v>1225</v>
       </c>
       <c r="J310" s="4">
         <v>97</v>
@@ -13301,8 +13313,8 @@
       <c r="L310" s="4">
         <v>216</v>
       </c>
-      <c r="M310" s="5">
-        <v>12.46</v>
+      <c r="M310" s="7">
+        <v>12460</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
@@ -13310,23 +13322,23 @@
       <c r="B311" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C311" s="4">
-        <v>2.19</v>
-      </c>
-      <c r="D311" s="4">
-        <v>1.546</v>
-      </c>
-      <c r="E311" s="4">
-        <v>6.6870000000000003</v>
+      <c r="C311" s="9">
+        <v>2190</v>
+      </c>
+      <c r="D311" s="9">
+        <v>1546</v>
+      </c>
+      <c r="E311" s="9">
+        <v>6687</v>
       </c>
       <c r="F311" s="4">
         <v>312</v>
       </c>
-      <c r="G311" s="4">
-        <v>1.028</v>
-      </c>
-      <c r="H311" s="4">
-        <v>1.7150000000000001</v>
+      <c r="G311" s="9">
+        <v>1028</v>
+      </c>
+      <c r="H311" s="9">
+        <v>1715</v>
       </c>
       <c r="I311" s="4">
         <v>693</v>
@@ -13340,8 +13352,8 @@
       <c r="L311" s="4">
         <v>246</v>
       </c>
-      <c r="M311" s="5">
-        <v>14.475</v>
+      <c r="M311" s="7">
+        <v>14475</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
@@ -13357,8 +13369,8 @@
       <c r="D312" s="4">
         <v>460</v>
       </c>
-      <c r="E312" s="4">
-        <v>4.359</v>
+      <c r="E312" s="9">
+        <v>4359</v>
       </c>
       <c r="F312" s="4">
         <v>304</v>
@@ -13366,8 +13378,8 @@
       <c r="G312" s="4">
         <v>922</v>
       </c>
-      <c r="H312" s="4">
-        <v>1.224</v>
+      <c r="H312" s="9">
+        <v>1224</v>
       </c>
       <c r="I312" s="4">
         <v>965</v>
@@ -13381,8 +13393,8 @@
       <c r="L312" s="4">
         <v>186</v>
       </c>
-      <c r="M312" s="5">
-        <v>8.8360000000000003</v>
+      <c r="M312" s="7">
+        <v>8836</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
@@ -13390,14 +13402,14 @@
       <c r="B313" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C313" s="4">
-        <v>2.4929999999999999</v>
-      </c>
-      <c r="D313" s="4">
-        <v>1.383</v>
-      </c>
-      <c r="E313" s="4">
-        <v>4.5990000000000002</v>
+      <c r="C313" s="9">
+        <v>2493</v>
+      </c>
+      <c r="D313" s="9">
+        <v>1383</v>
+      </c>
+      <c r="E313" s="9">
+        <v>4599</v>
       </c>
       <c r="F313" s="4">
         <v>86</v>
@@ -13420,8 +13432,8 @@
       <c r="L313" s="4">
         <v>183</v>
       </c>
-      <c r="M313" s="5">
-        <v>10.807</v>
+      <c r="M313" s="7">
+        <v>10807</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
@@ -13437,8 +13449,8 @@
       <c r="D314" s="4">
         <v>778</v>
       </c>
-      <c r="E314" s="4">
-        <v>4.07</v>
+      <c r="E314" s="9">
+        <v>4070</v>
       </c>
       <c r="F314" s="4">
         <v>86</v>
@@ -13461,8 +13473,8 @@
       <c r="L314" s="4">
         <v>166</v>
       </c>
-      <c r="M314" s="5">
-        <v>8.5359999999999996</v>
+      <c r="M314" s="7">
+        <v>8536</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
@@ -13470,14 +13482,14 @@
       <c r="B315" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C315" s="4">
-        <v>5.2889999999999997</v>
-      </c>
-      <c r="D315" s="4">
-        <v>2.024</v>
-      </c>
-      <c r="E315" s="4">
-        <v>4.6100000000000003</v>
+      <c r="C315" s="9">
+        <v>5289</v>
+      </c>
+      <c r="D315" s="9">
+        <v>2024</v>
+      </c>
+      <c r="E315" s="9">
+        <v>4610</v>
       </c>
       <c r="F315" s="4">
         <v>33</v>
@@ -13500,8 +13512,8 @@
       <c r="L315" s="4">
         <v>281</v>
       </c>
-      <c r="M315" s="5">
-        <v>14.287000000000001</v>
+      <c r="M315" s="7">
+        <v>14287</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
@@ -13509,38 +13521,38 @@
         <v>12</v>
       </c>
       <c r="B316" s="6"/>
-      <c r="C316" s="5">
-        <v>20.085999999999999</v>
-      </c>
-      <c r="D316" s="5">
-        <v>23.358000000000001</v>
-      </c>
-      <c r="E316" s="5">
-        <v>103.629</v>
-      </c>
-      <c r="F316" s="5">
-        <v>47.802</v>
-      </c>
-      <c r="G316" s="5">
-        <v>90.516000000000005</v>
-      </c>
-      <c r="H316" s="5">
-        <v>164.005</v>
-      </c>
-      <c r="I316" s="5">
-        <v>94.778000000000006</v>
-      </c>
-      <c r="J316" s="5">
-        <v>10.471</v>
-      </c>
-      <c r="K316" s="5">
-        <v>1.6180000000000001</v>
-      </c>
-      <c r="L316" s="5">
-        <v>6.0629999999999997</v>
-      </c>
-      <c r="M316" s="5">
-        <v>562.32600000000002</v>
+      <c r="C316" s="7">
+        <v>20086</v>
+      </c>
+      <c r="D316" s="7">
+        <v>23358</v>
+      </c>
+      <c r="E316" s="7">
+        <v>103629</v>
+      </c>
+      <c r="F316" s="7">
+        <v>47802</v>
+      </c>
+      <c r="G316" s="7">
+        <v>90516</v>
+      </c>
+      <c r="H316" s="7">
+        <v>164005</v>
+      </c>
+      <c r="I316" s="7">
+        <v>94778</v>
+      </c>
+      <c r="J316" s="7">
+        <v>10471</v>
+      </c>
+      <c r="K316" s="7">
+        <v>1618</v>
+      </c>
+      <c r="L316" s="7">
+        <v>6063</v>
+      </c>
+      <c r="M316" s="7">
+        <v>562326</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -14553,20 +14565,20 @@
       <c r="D342" s="5">
         <v>474</v>
       </c>
-      <c r="E342" s="5">
-        <v>2.9510000000000001</v>
-      </c>
-      <c r="F342" s="5">
-        <v>1.3169999999999999</v>
-      </c>
-      <c r="G342" s="5">
-        <v>2.552</v>
-      </c>
-      <c r="H342" s="5">
-        <v>2.94</v>
-      </c>
-      <c r="I342" s="5">
-        <v>1.4079999999999999</v>
+      <c r="E342" s="7">
+        <v>2951</v>
+      </c>
+      <c r="F342" s="7">
+        <v>1317</v>
+      </c>
+      <c r="G342" s="7">
+        <v>2552</v>
+      </c>
+      <c r="H342" s="7">
+        <v>2940</v>
+      </c>
+      <c r="I342" s="7">
+        <v>1408</v>
       </c>
       <c r="J342" s="5">
         <v>126</v>
@@ -14577,8 +14589,8 @@
       <c r="L342" s="5">
         <v>109</v>
       </c>
-      <c r="M342" s="5">
-        <v>12.827</v>
+      <c r="M342" s="7">
+        <v>12827</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -15591,20 +15603,20 @@
       <c r="D368" s="5">
         <v>475</v>
       </c>
-      <c r="E368" s="5">
-        <v>3.6779999999999999</v>
-      </c>
-      <c r="F368" s="5">
-        <v>1.083</v>
-      </c>
-      <c r="G368" s="5">
-        <v>2.0339999999999998</v>
-      </c>
-      <c r="H368" s="5">
-        <v>3.8580000000000001</v>
-      </c>
-      <c r="I368" s="5">
-        <v>1.875</v>
+      <c r="E368" s="7">
+        <v>3678</v>
+      </c>
+      <c r="F368" s="7">
+        <v>1083</v>
+      </c>
+      <c r="G368" s="7">
+        <v>2034</v>
+      </c>
+      <c r="H368" s="7">
+        <v>3858</v>
+      </c>
+      <c r="I368" s="7">
+        <v>1875</v>
       </c>
       <c r="J368" s="5">
         <v>158</v>
@@ -15615,8 +15627,8 @@
       <c r="L368" s="5">
         <v>112</v>
       </c>
-      <c r="M368" s="5">
-        <v>13.769</v>
+      <c r="M368" s="7">
+        <v>13769</v>
       </c>
     </row>
     <row r="369" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -15677,14 +15689,14 @@
       <c r="F370" s="4">
         <v>21</v>
       </c>
-      <c r="G370" s="4">
-        <v>7.7009999999999996</v>
-      </c>
-      <c r="H370" s="4">
-        <v>12.167</v>
-      </c>
-      <c r="I370" s="4">
-        <v>2.3610000000000002</v>
+      <c r="G370" s="9">
+        <v>7701</v>
+      </c>
+      <c r="H370" s="9">
+        <v>12167</v>
+      </c>
+      <c r="I370" s="9">
+        <v>2361</v>
       </c>
       <c r="J370" s="4">
         <v>17</v>
@@ -15695,8 +15707,8 @@
       <c r="L370" s="4">
         <v>206</v>
       </c>
-      <c r="M370" s="5">
-        <v>22.884</v>
+      <c r="M370" s="7">
+        <v>22884</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
@@ -15716,14 +15728,14 @@
       <c r="F371" s="4">
         <v>13</v>
       </c>
-      <c r="G371" s="4">
-        <v>6.7119999999999997</v>
-      </c>
-      <c r="H371" s="4">
-        <v>11.507</v>
-      </c>
-      <c r="I371" s="4">
-        <v>2.9020000000000001</v>
+      <c r="G371" s="9">
+        <v>6712</v>
+      </c>
+      <c r="H371" s="9">
+        <v>11507</v>
+      </c>
+      <c r="I371" s="9">
+        <v>2902</v>
       </c>
       <c r="J371" s="4">
         <v>24</v>
@@ -15734,8 +15746,8 @@
       <c r="L371" s="4">
         <v>74</v>
       </c>
-      <c r="M371" s="5">
-        <v>21.94</v>
+      <c r="M371" s="7">
+        <v>21940</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
@@ -15757,14 +15769,14 @@
       <c r="F372" s="4">
         <v>392</v>
       </c>
-      <c r="G372" s="4">
-        <v>4.9450000000000003</v>
-      </c>
-      <c r="H372" s="4">
-        <v>4.5229999999999997</v>
-      </c>
-      <c r="I372" s="4">
-        <v>4.3890000000000002</v>
+      <c r="G372" s="9">
+        <v>4945</v>
+      </c>
+      <c r="H372" s="9">
+        <v>4523</v>
+      </c>
+      <c r="I372" s="9">
+        <v>4389</v>
       </c>
       <c r="J372" s="4">
         <v>175</v>
@@ -15775,8 +15787,8 @@
       <c r="L372" s="4">
         <v>85</v>
       </c>
-      <c r="M372" s="5">
-        <v>15.127000000000001</v>
+      <c r="M372" s="7">
+        <v>15127</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
@@ -15796,14 +15808,14 @@
       <c r="F373" s="4">
         <v>319</v>
       </c>
-      <c r="G373" s="4">
-        <v>3.9089999999999998</v>
-      </c>
-      <c r="H373" s="4">
-        <v>3.173</v>
-      </c>
-      <c r="I373" s="4">
-        <v>4.4000000000000004</v>
+      <c r="G373" s="9">
+        <v>3909</v>
+      </c>
+      <c r="H373" s="9">
+        <v>3173</v>
+      </c>
+      <c r="I373" s="9">
+        <v>4400</v>
       </c>
       <c r="J373" s="4">
         <v>256</v>
@@ -15814,8 +15826,8 @@
       <c r="L373" s="4">
         <v>83</v>
       </c>
-      <c r="M373" s="5">
-        <v>14.119</v>
+      <c r="M373" s="7">
+        <v>14119</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
@@ -15834,17 +15846,17 @@
       <c r="E374" s="4">
         <v>325</v>
       </c>
-      <c r="F374" s="4">
-        <v>3.2109999999999999</v>
-      </c>
-      <c r="G374" s="4">
-        <v>2.3530000000000002</v>
-      </c>
-      <c r="H374" s="4">
-        <v>4.2619999999999996</v>
-      </c>
-      <c r="I374" s="4">
-        <v>3.2330000000000001</v>
+      <c r="F374" s="9">
+        <v>3211</v>
+      </c>
+      <c r="G374" s="9">
+        <v>2353</v>
+      </c>
+      <c r="H374" s="9">
+        <v>4262</v>
+      </c>
+      <c r="I374" s="9">
+        <v>3233</v>
       </c>
       <c r="J374" s="4">
         <v>292</v>
@@ -15855,8 +15867,8 @@
       <c r="L374" s="4">
         <v>77</v>
       </c>
-      <c r="M374" s="5">
-        <v>14.329000000000001</v>
+      <c r="M374" s="7">
+        <v>14329</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
@@ -15867,23 +15879,23 @@
       <c r="C375" s="4">
         <v>480</v>
       </c>
-      <c r="D375" s="4">
-        <v>1.5740000000000001</v>
+      <c r="D375" s="9">
+        <v>1574</v>
       </c>
       <c r="E375" s="4">
         <v>991</v>
       </c>
-      <c r="F375" s="4">
-        <v>2.641</v>
-      </c>
-      <c r="G375" s="4">
-        <v>1.516</v>
-      </c>
-      <c r="H375" s="4">
-        <v>3.202</v>
-      </c>
-      <c r="I375" s="4">
-        <v>3.2679999999999998</v>
+      <c r="F375" s="9">
+        <v>2641</v>
+      </c>
+      <c r="G375" s="9">
+        <v>1516</v>
+      </c>
+      <c r="H375" s="9">
+        <v>3202</v>
+      </c>
+      <c r="I375" s="9">
+        <v>3268</v>
       </c>
       <c r="J375" s="4">
         <v>266</v>
@@ -15894,8 +15906,8 @@
       <c r="L375" s="4">
         <v>125</v>
       </c>
-      <c r="M375" s="5">
-        <v>14.064</v>
+      <c r="M375" s="7">
+        <v>14064</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
@@ -15911,20 +15923,20 @@
       <c r="D376" s="4">
         <v>316</v>
       </c>
-      <c r="E376" s="4">
-        <v>1.4490000000000001</v>
-      </c>
-      <c r="F376" s="4">
-        <v>3.2480000000000002</v>
-      </c>
-      <c r="G376" s="4">
-        <v>1.776</v>
-      </c>
-      <c r="H376" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I376" s="4">
-        <v>2.6789999999999998</v>
+      <c r="E376" s="9">
+        <v>1449</v>
+      </c>
+      <c r="F376" s="9">
+        <v>3248</v>
+      </c>
+      <c r="G376" s="9">
+        <v>1776</v>
+      </c>
+      <c r="H376" s="9">
+        <v>4600</v>
+      </c>
+      <c r="I376" s="9">
+        <v>2679</v>
       </c>
       <c r="J376" s="4">
         <v>284</v>
@@ -15935,8 +15947,8 @@
       <c r="L376" s="4">
         <v>100</v>
       </c>
-      <c r="M376" s="5">
-        <v>14.56</v>
+      <c r="M376" s="7">
+        <v>14560</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
@@ -15947,23 +15959,23 @@
       <c r="C377" s="4">
         <v>509</v>
       </c>
-      <c r="D377" s="4">
-        <v>1.1359999999999999</v>
-      </c>
-      <c r="E377" s="4">
-        <v>3.145</v>
-      </c>
-      <c r="F377" s="4">
-        <v>2.004</v>
-      </c>
-      <c r="G377" s="4">
-        <v>1.333</v>
-      </c>
-      <c r="H377" s="4">
-        <v>3.5369999999999999</v>
-      </c>
-      <c r="I377" s="4">
-        <v>2.073</v>
+      <c r="D377" s="9">
+        <v>1136</v>
+      </c>
+      <c r="E377" s="9">
+        <v>3145</v>
+      </c>
+      <c r="F377" s="9">
+        <v>2004</v>
+      </c>
+      <c r="G377" s="9">
+        <v>1333</v>
+      </c>
+      <c r="H377" s="9">
+        <v>3537</v>
+      </c>
+      <c r="I377" s="9">
+        <v>2073</v>
       </c>
       <c r="J377" s="4">
         <v>210</v>
@@ -15974,8 +15986,8 @@
       <c r="L377" s="4">
         <v>79</v>
       </c>
-      <c r="M377" s="5">
-        <v>14.041</v>
+      <c r="M377" s="7">
+        <v>14041</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
@@ -15991,20 +16003,20 @@
       <c r="D378" s="4">
         <v>220</v>
       </c>
-      <c r="E378" s="4">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="F378" s="4">
-        <v>2.4820000000000002</v>
-      </c>
-      <c r="G378" s="4">
-        <v>2.6880000000000002</v>
-      </c>
-      <c r="H378" s="4">
-        <v>5.2190000000000003</v>
-      </c>
-      <c r="I378" s="4">
-        <v>1.9350000000000001</v>
+      <c r="E378" s="9">
+        <v>2240</v>
+      </c>
+      <c r="F378" s="9">
+        <v>2482</v>
+      </c>
+      <c r="G378" s="9">
+        <v>2688</v>
+      </c>
+      <c r="H378" s="9">
+        <v>5219</v>
+      </c>
+      <c r="I378" s="9">
+        <v>1935</v>
       </c>
       <c r="J378" s="4">
         <v>241</v>
@@ -16015,8 +16027,8 @@
       <c r="L378" s="4">
         <v>120</v>
       </c>
-      <c r="M378" s="5">
-        <v>15.263999999999999</v>
+      <c r="M378" s="7">
+        <v>15264</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
@@ -16027,23 +16039,23 @@
       <c r="C379" s="4">
         <v>543</v>
       </c>
-      <c r="D379" s="4">
-        <v>1.129</v>
-      </c>
-      <c r="E379" s="4">
-        <v>4.2869999999999999</v>
-      </c>
-      <c r="F379" s="4">
-        <v>1.425</v>
-      </c>
-      <c r="G379" s="4">
-        <v>2.073</v>
-      </c>
-      <c r="H379" s="4">
-        <v>3.4209999999999998</v>
-      </c>
-      <c r="I379" s="4">
-        <v>1.35</v>
+      <c r="D379" s="9">
+        <v>1129</v>
+      </c>
+      <c r="E379" s="9">
+        <v>4287</v>
+      </c>
+      <c r="F379" s="9">
+        <v>1425</v>
+      </c>
+      <c r="G379" s="9">
+        <v>2073</v>
+      </c>
+      <c r="H379" s="9">
+        <v>3421</v>
+      </c>
+      <c r="I379" s="9">
+        <v>1350</v>
       </c>
       <c r="J379" s="4">
         <v>213</v>
@@ -16054,8 +16066,8 @@
       <c r="L379" s="4">
         <v>82</v>
       </c>
-      <c r="M379" s="5">
-        <v>14.544</v>
+      <c r="M379" s="7">
+        <v>14544</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
@@ -16071,20 +16083,20 @@
       <c r="D380" s="4">
         <v>176</v>
       </c>
-      <c r="E380" s="4">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="F380" s="4">
-        <v>2.4359999999999999</v>
-      </c>
-      <c r="G380" s="4">
-        <v>2.3330000000000002</v>
-      </c>
-      <c r="H380" s="4">
-        <v>3.7989999999999999</v>
-      </c>
-      <c r="I380" s="4">
-        <v>1.3819999999999999</v>
+      <c r="E380" s="9">
+        <v>2320</v>
+      </c>
+      <c r="F380" s="9">
+        <v>2436</v>
+      </c>
+      <c r="G380" s="9">
+        <v>2333</v>
+      </c>
+      <c r="H380" s="9">
+        <v>3799</v>
+      </c>
+      <c r="I380" s="9">
+        <v>1382</v>
       </c>
       <c r="J380" s="4">
         <v>167</v>
@@ -16095,8 +16107,8 @@
       <c r="L380" s="4">
         <v>96</v>
       </c>
-      <c r="M380" s="5">
-        <v>12.802</v>
+      <c r="M380" s="7">
+        <v>12802</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
@@ -16110,17 +16122,17 @@
       <c r="D381" s="4">
         <v>997</v>
       </c>
-      <c r="E381" s="4">
-        <v>3.92</v>
-      </c>
-      <c r="F381" s="4">
-        <v>1.3720000000000001</v>
-      </c>
-      <c r="G381" s="4">
-        <v>1.726</v>
-      </c>
-      <c r="H381" s="4">
-        <v>2.4990000000000001</v>
+      <c r="E381" s="9">
+        <v>3920</v>
+      </c>
+      <c r="F381" s="9">
+        <v>1372</v>
+      </c>
+      <c r="G381" s="9">
+        <v>1726</v>
+      </c>
+      <c r="H381" s="9">
+        <v>2499</v>
       </c>
       <c r="I381" s="4">
         <v>836</v>
@@ -16134,8 +16146,8 @@
       <c r="L381" s="4">
         <v>83</v>
       </c>
-      <c r="M381" s="5">
-        <v>12.096</v>
+      <c r="M381" s="7">
+        <v>12096</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
@@ -16151,17 +16163,17 @@
       <c r="D382" s="4">
         <v>186</v>
       </c>
-      <c r="E382" s="4">
-        <v>2.262</v>
-      </c>
-      <c r="F382" s="4">
-        <v>2.3239999999999998</v>
-      </c>
-      <c r="G382" s="4">
-        <v>2.2829999999999999</v>
-      </c>
-      <c r="H382" s="4">
-        <v>2.4790000000000001</v>
+      <c r="E382" s="9">
+        <v>2262</v>
+      </c>
+      <c r="F382" s="9">
+        <v>2324</v>
+      </c>
+      <c r="G382" s="9">
+        <v>2283</v>
+      </c>
+      <c r="H382" s="9">
+        <v>2479</v>
       </c>
       <c r="I382" s="4">
         <v>978</v>
@@ -16175,8 +16187,8 @@
       <c r="L382" s="4">
         <v>101</v>
       </c>
-      <c r="M382" s="5">
-        <v>10.821999999999999</v>
+      <c r="M382" s="7">
+        <v>10822</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
@@ -16187,20 +16199,20 @@
       <c r="C383" s="4">
         <v>651</v>
       </c>
-      <c r="D383" s="4">
-        <v>1.0209999999999999</v>
-      </c>
-      <c r="E383" s="4">
-        <v>3.7189999999999999</v>
-      </c>
-      <c r="F383" s="4">
-        <v>1.175</v>
-      </c>
-      <c r="G383" s="4">
-        <v>1.54</v>
-      </c>
-      <c r="H383" s="4">
-        <v>1.73</v>
+      <c r="D383" s="9">
+        <v>1021</v>
+      </c>
+      <c r="E383" s="9">
+        <v>3719</v>
+      </c>
+      <c r="F383" s="9">
+        <v>1175</v>
+      </c>
+      <c r="G383" s="9">
+        <v>1540</v>
+      </c>
+      <c r="H383" s="9">
+        <v>1730</v>
       </c>
       <c r="I383" s="4">
         <v>417</v>
@@ -16214,8 +16226,8 @@
       <c r="L383" s="4">
         <v>91</v>
       </c>
-      <c r="M383" s="5">
-        <v>10.395</v>
+      <c r="M383" s="7">
+        <v>10395</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
@@ -16231,17 +16243,17 @@
       <c r="D384" s="4">
         <v>223</v>
       </c>
-      <c r="E384" s="4">
-        <v>2.431</v>
-      </c>
-      <c r="F384" s="4">
-        <v>1.972</v>
-      </c>
-      <c r="G384" s="4">
-        <v>1.9330000000000001</v>
-      </c>
-      <c r="H384" s="4">
-        <v>1.95</v>
+      <c r="E384" s="9">
+        <v>2431</v>
+      </c>
+      <c r="F384" s="9">
+        <v>1972</v>
+      </c>
+      <c r="G384" s="9">
+        <v>1933</v>
+      </c>
+      <c r="H384" s="9">
+        <v>1950</v>
       </c>
       <c r="I384" s="4">
         <v>535</v>
@@ -16255,8 +16267,8 @@
       <c r="L384" s="4">
         <v>86</v>
       </c>
-      <c r="M384" s="5">
-        <v>9.31</v>
+      <c r="M384" s="7">
+        <v>9310</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
@@ -16267,20 +16279,20 @@
       <c r="C385" s="4">
         <v>901</v>
       </c>
-      <c r="D385" s="4">
-        <v>1.046</v>
-      </c>
-      <c r="E385" s="4">
-        <v>3.819</v>
+      <c r="D385" s="9">
+        <v>1046</v>
+      </c>
+      <c r="E385" s="9">
+        <v>3819</v>
       </c>
       <c r="F385" s="4">
         <v>813</v>
       </c>
-      <c r="G385" s="4">
-        <v>1.119</v>
-      </c>
-      <c r="H385" s="4">
-        <v>1.1599999999999999</v>
+      <c r="G385" s="9">
+        <v>1119</v>
+      </c>
+      <c r="H385" s="9">
+        <v>1160</v>
       </c>
       <c r="I385" s="4">
         <v>191</v>
@@ -16294,8 +16306,8 @@
       <c r="L385" s="4">
         <v>90</v>
       </c>
-      <c r="M385" s="5">
-        <v>9.1679999999999993</v>
+      <c r="M385" s="7">
+        <v>9168</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.25">
@@ -16311,17 +16323,17 @@
       <c r="D386" s="4">
         <v>250</v>
       </c>
-      <c r="E386" s="4">
-        <v>2.6960000000000002</v>
-      </c>
-      <c r="F386" s="4">
-        <v>1.2969999999999999</v>
-      </c>
-      <c r="G386" s="4">
-        <v>1.246</v>
-      </c>
-      <c r="H386" s="4">
-        <v>1.5169999999999999</v>
+      <c r="E386" s="9">
+        <v>2696</v>
+      </c>
+      <c r="F386" s="9">
+        <v>1297</v>
+      </c>
+      <c r="G386" s="9">
+        <v>1246</v>
+      </c>
+      <c r="H386" s="9">
+        <v>1517</v>
       </c>
       <c r="I386" s="4">
         <v>303</v>
@@ -16335,8 +16347,8 @@
       <c r="L386" s="4">
         <v>93</v>
       </c>
-      <c r="M386" s="5">
-        <v>7.5979999999999999</v>
+      <c r="M386" s="7">
+        <v>7598</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
@@ -16344,14 +16356,14 @@
       <c r="B387" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C387" s="4">
-        <v>1.1759999999999999</v>
-      </c>
-      <c r="D387" s="4">
-        <v>1.054</v>
-      </c>
-      <c r="E387" s="4">
-        <v>3.8530000000000002</v>
+      <c r="C387" s="9">
+        <v>1176</v>
+      </c>
+      <c r="D387" s="9">
+        <v>1054</v>
+      </c>
+      <c r="E387" s="9">
+        <v>3853</v>
       </c>
       <c r="F387" s="4">
         <v>429</v>
@@ -16374,8 +16386,8 @@
       <c r="L387" s="4">
         <v>91</v>
       </c>
-      <c r="M387" s="5">
-        <v>8.0860000000000003</v>
+      <c r="M387" s="7">
+        <v>8086</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.25">
@@ -16391,8 +16403,8 @@
       <c r="D388" s="4">
         <v>292</v>
       </c>
-      <c r="E388" s="4">
-        <v>3.1</v>
+      <c r="E388" s="9">
+        <v>3100</v>
       </c>
       <c r="F388" s="4">
         <v>583</v>
@@ -16415,8 +16427,8 @@
       <c r="L388" s="4">
         <v>74</v>
       </c>
-      <c r="M388" s="5">
-        <v>6.1890000000000001</v>
+      <c r="M388" s="7">
+        <v>6189</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.25">
@@ -16424,14 +16436,14 @@
       <c r="B389" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C389" s="4">
-        <v>1.57</v>
-      </c>
-      <c r="D389" s="4">
-        <v>1.1419999999999999</v>
-      </c>
-      <c r="E389" s="4">
-        <v>3.2730000000000001</v>
+      <c r="C389" s="9">
+        <v>1570</v>
+      </c>
+      <c r="D389" s="9">
+        <v>1142</v>
+      </c>
+      <c r="E389" s="9">
+        <v>3273</v>
       </c>
       <c r="F389" s="4">
         <v>169</v>
@@ -16454,8 +16466,8 @@
       <c r="L389" s="4">
         <v>62</v>
       </c>
-      <c r="M389" s="5">
-        <v>6.95</v>
+      <c r="M389" s="7">
+        <v>6950</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.25">
@@ -16471,8 +16483,8 @@
       <c r="D390" s="4">
         <v>288</v>
       </c>
-      <c r="E390" s="4">
-        <v>2.4820000000000002</v>
+      <c r="E390" s="9">
+        <v>2482</v>
       </c>
       <c r="F390" s="4">
         <v>181</v>
@@ -16495,8 +16507,8 @@
       <c r="L390" s="4">
         <v>52</v>
       </c>
-      <c r="M390" s="5">
-        <v>4.1399999999999997</v>
+      <c r="M390" s="7">
+        <v>4140</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.25">
@@ -16504,14 +16516,14 @@
       <c r="B391" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C391" s="4">
-        <v>1.804</v>
+      <c r="C391" s="9">
+        <v>1804</v>
       </c>
       <c r="D391" s="4">
         <v>878</v>
       </c>
-      <c r="E391" s="4">
-        <v>1.9610000000000001</v>
+      <c r="E391" s="9">
+        <v>1961</v>
       </c>
       <c r="F391" s="4">
         <v>34</v>
@@ -16534,8 +16546,8 @@
       <c r="L391" s="4">
         <v>46</v>
       </c>
-      <c r="M391" s="5">
-        <v>5.0250000000000004</v>
+      <c r="M391" s="7">
+        <v>5025</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
@@ -16551,8 +16563,8 @@
       <c r="D392" s="4">
         <v>449</v>
       </c>
-      <c r="E392" s="4">
-        <v>2.0649999999999999</v>
+      <c r="E392" s="9">
+        <v>2065</v>
       </c>
       <c r="F392" s="4">
         <v>56</v>
@@ -16575,8 +16587,8 @@
       <c r="L392" s="4">
         <v>49</v>
       </c>
-      <c r="M392" s="5">
-        <v>3.754</v>
+      <c r="M392" s="7">
+        <v>3754</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.25">
@@ -16584,14 +16596,14 @@
       <c r="B393" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C393" s="4">
-        <v>3.452</v>
-      </c>
-      <c r="D393" s="4">
-        <v>1.0189999999999999</v>
-      </c>
-      <c r="E393" s="4">
-        <v>1.371</v>
+      <c r="C393" s="9">
+        <v>3452</v>
+      </c>
+      <c r="D393" s="9">
+        <v>1019</v>
+      </c>
+      <c r="E393" s="9">
+        <v>1371</v>
       </c>
       <c r="F393" s="4">
         <v>12</v>
@@ -16614,8 +16626,8 @@
       <c r="L393" s="4">
         <v>67</v>
       </c>
-      <c r="M393" s="5">
-        <v>6.0979999999999999</v>
+      <c r="M393" s="7">
+        <v>6098</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
@@ -16623,38 +16635,48 @@
         <v>12</v>
       </c>
       <c r="B394" s="6"/>
-      <c r="C394" s="5">
-        <v>13.452999999999999</v>
-      </c>
-      <c r="D394" s="5">
-        <v>15.558999999999999</v>
-      </c>
-      <c r="E394" s="5">
-        <v>53.588000000000001</v>
-      </c>
-      <c r="F394" s="5">
-        <v>28.609000000000002</v>
-      </c>
-      <c r="G394" s="5">
-        <v>50.103999999999999</v>
-      </c>
-      <c r="H394" s="5">
-        <v>73.265000000000001</v>
-      </c>
-      <c r="I394" s="5">
-        <v>33.826999999999998</v>
-      </c>
-      <c r="J394" s="5">
-        <v>2.5270000000000001</v>
+      <c r="C394" s="7">
+        <v>13453</v>
+      </c>
+      <c r="D394" s="7">
+        <v>15559</v>
+      </c>
+      <c r="E394" s="7">
+        <v>53588</v>
+      </c>
+      <c r="F394" s="7">
+        <v>28609</v>
+      </c>
+      <c r="G394" s="7">
+        <v>50104</v>
+      </c>
+      <c r="H394" s="7">
+        <v>73265</v>
+      </c>
+      <c r="I394" s="7">
+        <v>33827</v>
+      </c>
+      <c r="J394" s="7">
+        <v>2527</v>
       </c>
       <c r="K394" s="5">
         <v>261</v>
       </c>
-      <c r="L394" s="5">
-        <v>2.1120000000000001</v>
-      </c>
-      <c r="M394" s="5">
-        <v>273.30500000000001</v>
+      <c r="L394" s="7">
+        <v>2112</v>
+      </c>
+      <c r="M394" s="7">
+        <v>273305</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A395" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A396" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
